--- a/rdm.gradient.2019.datasheet.xlsx
+++ b/rdm.gradient.2019.datasheet.xlsx
@@ -650,8 +650,8 @@
   <dimension ref="A1:V635"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A428" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E435" sqref="E435"/>
+      <pane ySplit="1" topLeftCell="A190" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E192" sqref="E192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -966,6 +966,9 @@
       <c r="D7" t="s">
         <v>20</v>
       </c>
+      <c r="E7">
+        <v>3.4870999999999999</v>
+      </c>
       <c r="I7">
         <v>0</v>
       </c>
@@ -1529,6 +1532,9 @@
       <c r="D20" t="s">
         <v>59</v>
       </c>
+      <c r="E20">
+        <v>5.0709</v>
+      </c>
       <c r="F20">
         <v>355</v>
       </c>
@@ -1576,6 +1582,9 @@
       <c r="D21" t="s">
         <v>20</v>
       </c>
+      <c r="E21">
+        <v>5.1254999999999997</v>
+      </c>
       <c r="I21">
         <v>2</v>
       </c>
@@ -1611,6 +1620,9 @@
       <c r="D22" t="s">
         <v>59</v>
       </c>
+      <c r="E22">
+        <v>2.1236999999999999</v>
+      </c>
       <c r="F22">
         <v>280</v>
       </c>
@@ -1658,6 +1670,9 @@
       <c r="D23" t="s">
         <v>20</v>
       </c>
+      <c r="E23">
+        <v>1.7286999999999999</v>
+      </c>
       <c r="I23">
         <v>6</v>
       </c>
@@ -1693,6 +1708,9 @@
       <c r="D24" t="s">
         <v>59</v>
       </c>
+      <c r="E24">
+        <v>6.6891999999999996</v>
+      </c>
       <c r="F24">
         <v>320</v>
       </c>
@@ -1749,6 +1767,9 @@
       <c r="D25" t="s">
         <v>20</v>
       </c>
+      <c r="E25">
+        <v>4.8548</v>
+      </c>
       <c r="I25">
         <v>0</v>
       </c>
@@ -2221,6 +2242,9 @@
       <c r="D36" t="s">
         <v>59</v>
       </c>
+      <c r="E36">
+        <v>3.4870000000000001</v>
+      </c>
       <c r="F36">
         <v>255</v>
       </c>
@@ -2268,6 +2292,9 @@
       <c r="D37" t="s">
         <v>20</v>
       </c>
+      <c r="E37">
+        <v>2.2605</v>
+      </c>
       <c r="I37">
         <v>0</v>
       </c>
@@ -2303,6 +2330,9 @@
       <c r="D38" t="s">
         <v>59</v>
       </c>
+      <c r="E38">
+        <v>6.4622000000000002</v>
+      </c>
       <c r="F38">
         <v>280</v>
       </c>
@@ -2356,6 +2386,9 @@
       <c r="D39" t="s">
         <v>20</v>
       </c>
+      <c r="E39">
+        <v>0.99350000000000005</v>
+      </c>
       <c r="I39">
         <v>0</v>
       </c>
@@ -2397,6 +2430,9 @@
       <c r="D40" t="s">
         <v>59</v>
       </c>
+      <c r="E40">
+        <v>1.3472</v>
+      </c>
       <c r="F40">
         <v>170</v>
       </c>
@@ -2441,6 +2477,9 @@
       <c r="D41" t="s">
         <v>20</v>
       </c>
+      <c r="E41">
+        <v>1.0427</v>
+      </c>
       <c r="I41">
         <v>2</v>
       </c>
@@ -2473,6 +2512,9 @@
       <c r="D42" t="s">
         <v>59</v>
       </c>
+      <c r="E42">
+        <v>1.2114</v>
+      </c>
       <c r="F42">
         <v>275</v>
       </c>
@@ -2517,6 +2559,9 @@
       <c r="D43" t="s">
         <v>20</v>
       </c>
+      <c r="E43">
+        <v>0.42320000000000002</v>
+      </c>
       <c r="I43">
         <v>2</v>
       </c>
@@ -2549,6 +2594,9 @@
       <c r="D44" t="s">
         <v>59</v>
       </c>
+      <c r="E44">
+        <v>3.5655999999999999</v>
+      </c>
       <c r="F44">
         <v>275</v>
       </c>
@@ -2593,6 +2641,9 @@
       <c r="D45" t="s">
         <v>20</v>
       </c>
+      <c r="E45">
+        <v>0.69359999999999999</v>
+      </c>
       <c r="I45">
         <v>1</v>
       </c>
@@ -2625,6 +2676,9 @@
       <c r="D46" t="s">
         <v>59</v>
       </c>
+      <c r="E46">
+        <v>4.5986000000000002</v>
+      </c>
       <c r="F46">
         <v>395</v>
       </c>
@@ -2678,6 +2732,9 @@
       <c r="D47" t="s">
         <v>20</v>
       </c>
+      <c r="E47">
+        <v>0.70169999999999999</v>
+      </c>
       <c r="I47">
         <v>0</v>
       </c>
@@ -2719,6 +2776,9 @@
       <c r="D48" t="s">
         <v>59</v>
       </c>
+      <c r="E48">
+        <v>3.6631999999999998</v>
+      </c>
       <c r="F48">
         <v>220</v>
       </c>
@@ -2763,6 +2823,9 @@
       <c r="D49" t="s">
         <v>20</v>
       </c>
+      <c r="E49">
+        <v>0.78449999999999998</v>
+      </c>
       <c r="I49">
         <v>2</v>
       </c>
@@ -2795,6 +2858,9 @@
       <c r="D50" t="s">
         <v>59</v>
       </c>
+      <c r="E50">
+        <v>2.1737000000000002</v>
+      </c>
       <c r="F50">
         <v>235</v>
       </c>
@@ -2839,6 +2905,9 @@
       <c r="D51" t="s">
         <v>20</v>
       </c>
+      <c r="E51">
+        <v>4.2988999999999997</v>
+      </c>
       <c r="I51">
         <v>3</v>
       </c>
@@ -2871,6 +2940,9 @@
       <c r="D52" t="s">
         <v>59</v>
       </c>
+      <c r="E52">
+        <v>4.2329999999999997</v>
+      </c>
       <c r="F52">
         <v>210</v>
       </c>
@@ -2915,6 +2987,9 @@
       <c r="D53" t="s">
         <v>20</v>
       </c>
+      <c r="E53">
+        <v>2.4416000000000002</v>
+      </c>
       <c r="I53">
         <v>1</v>
       </c>
@@ -2947,6 +3022,9 @@
       <c r="D54" t="s">
         <v>59</v>
       </c>
+      <c r="E54">
+        <v>12.145</v>
+      </c>
       <c r="F54">
         <v>175</v>
       </c>
@@ -3000,6 +3078,9 @@
       <c r="D55" t="s">
         <v>20</v>
       </c>
+      <c r="E55">
+        <v>7.7264999999999997</v>
+      </c>
       <c r="I55">
         <v>1</v>
       </c>
@@ -3041,6 +3122,9 @@
       <c r="D56" t="s">
         <v>59</v>
       </c>
+      <c r="E56">
+        <v>6.0101000000000004</v>
+      </c>
       <c r="F56">
         <v>330</v>
       </c>
@@ -3085,6 +3169,9 @@
       <c r="D57" t="s">
         <v>20</v>
       </c>
+      <c r="E57">
+        <v>1.6075999999999999</v>
+      </c>
       <c r="I57">
         <v>0</v>
       </c>
@@ -3803,6 +3890,9 @@
       <c r="D74" t="s">
         <v>59</v>
       </c>
+      <c r="E74">
+        <v>2.8605</v>
+      </c>
       <c r="F74">
         <v>420</v>
       </c>
@@ -3847,6 +3937,9 @@
       <c r="D75" t="s">
         <v>20</v>
       </c>
+      <c r="E75">
+        <v>1.0907</v>
+      </c>
       <c r="I75">
         <v>7</v>
       </c>
@@ -3879,6 +3972,9 @@
       <c r="D76" t="s">
         <v>59</v>
       </c>
+      <c r="E76">
+        <v>7.0913000000000004</v>
+      </c>
       <c r="F76">
         <v>250</v>
       </c>
@@ -3923,6 +4019,9 @@
       <c r="D77" t="s">
         <v>20</v>
       </c>
+      <c r="E77">
+        <v>0.71950000000000003</v>
+      </c>
       <c r="I77">
         <v>6</v>
       </c>
@@ -3955,6 +4054,9 @@
       <c r="D78" t="s">
         <v>59</v>
       </c>
+      <c r="E78">
+        <v>1.7295</v>
+      </c>
       <c r="F78">
         <v>235</v>
       </c>
@@ -3999,6 +4101,9 @@
       <c r="D79" t="s">
         <v>20</v>
       </c>
+      <c r="E79">
+        <v>0.80610000000000004</v>
+      </c>
       <c r="I79">
         <v>4</v>
       </c>
@@ -4031,6 +4136,9 @@
       <c r="D80" t="s">
         <v>59</v>
       </c>
+      <c r="E80">
+        <v>4.1675000000000004</v>
+      </c>
       <c r="F80">
         <v>325</v>
       </c>
@@ -4075,6 +4183,9 @@
       <c r="D81" t="s">
         <v>20</v>
       </c>
+      <c r="E81">
+        <v>1.4641999999999999</v>
+      </c>
       <c r="I81">
         <v>7</v>
       </c>
@@ -5520,6 +5631,9 @@
       <c r="D115" t="s">
         <v>20</v>
       </c>
+      <c r="E115">
+        <v>6.4100000000000004E-2</v>
+      </c>
       <c r="I115">
         <v>4</v>
       </c>
@@ -6010,6 +6124,9 @@
       <c r="D126" t="s">
         <v>59</v>
       </c>
+      <c r="E126">
+        <v>5.3291000000000004</v>
+      </c>
       <c r="F126">
         <v>235</v>
       </c>
@@ -6063,6 +6180,9 @@
       <c r="D127" t="s">
         <v>20</v>
       </c>
+      <c r="E127">
+        <v>1.1073999999999999</v>
+      </c>
       <c r="I127">
         <v>4</v>
       </c>
@@ -6104,6 +6224,9 @@
       <c r="D128" t="s">
         <v>59</v>
       </c>
+      <c r="E128">
+        <v>4.4462999999999999</v>
+      </c>
       <c r="F128">
         <v>265</v>
       </c>
@@ -6230,6 +6353,9 @@
       <c r="D131" t="s">
         <v>20</v>
       </c>
+      <c r="E131">
+        <v>1.3071999999999999</v>
+      </c>
       <c r="I131">
         <v>0</v>
       </c>
@@ -7001,6 +7127,9 @@
       <c r="D149" t="s">
         <v>20</v>
       </c>
+      <c r="E149">
+        <v>5.2739000000000003</v>
+      </c>
       <c r="I149">
         <v>4</v>
       </c>
@@ -8296,6 +8425,9 @@
       <c r="D180" t="s">
         <v>59</v>
       </c>
+      <c r="E180">
+        <v>6.6090999999999998</v>
+      </c>
       <c r="F180">
         <v>270</v>
       </c>
@@ -8349,6 +8481,9 @@
       <c r="D181" t="s">
         <v>20</v>
       </c>
+      <c r="E181">
+        <v>1.3946000000000001</v>
+      </c>
       <c r="I181">
         <v>1</v>
       </c>
@@ -8390,6 +8525,9 @@
       <c r="D182" t="s">
         <v>59</v>
       </c>
+      <c r="E182">
+        <v>2.3410000000000002</v>
+      </c>
       <c r="F182">
         <v>360</v>
       </c>
@@ -8446,6 +8584,9 @@
       <c r="D183" t="s">
         <v>20</v>
       </c>
+      <c r="E183">
+        <v>0.91159999999999997</v>
+      </c>
       <c r="I183">
         <v>2</v>
       </c>
@@ -8487,6 +8628,9 @@
       <c r="D184" t="s">
         <v>59</v>
       </c>
+      <c r="E184">
+        <v>5.2312000000000003</v>
+      </c>
       <c r="F184">
         <v>285</v>
       </c>
@@ -8584,6 +8728,9 @@
       <c r="D186" t="s">
         <v>59</v>
       </c>
+      <c r="E186">
+        <v>7.4961000000000002</v>
+      </c>
       <c r="F186">
         <v>370</v>
       </c>
@@ -8628,6 +8775,9 @@
       <c r="D187" t="s">
         <v>20</v>
       </c>
+      <c r="E187">
+        <v>3.7233999999999998</v>
+      </c>
       <c r="I187">
         <v>0</v>
       </c>
@@ -8757,6 +8907,9 @@
       <c r="D190" t="s">
         <v>59</v>
       </c>
+      <c r="E190">
+        <v>2.0634999999999999</v>
+      </c>
       <c r="F190">
         <v>620</v>
       </c>
@@ -8804,6 +8957,9 @@
       <c r="D191" t="s">
         <v>20</v>
       </c>
+      <c r="E191">
+        <v>0.73760000000000003</v>
+      </c>
       <c r="I191">
         <v>3</v>
       </c>
@@ -8962,6 +9118,9 @@
       <c r="D195" t="s">
         <v>20</v>
       </c>
+      <c r="E195">
+        <v>3.5223</v>
+      </c>
       <c r="I195">
         <v>0</v>
       </c>
@@ -8994,6 +9153,9 @@
       <c r="D196" t="s">
         <v>59</v>
       </c>
+      <c r="E196">
+        <v>2.7841999999999998</v>
+      </c>
       <c r="F196">
         <v>225</v>
       </c>
@@ -9038,6 +9200,9 @@
       <c r="D197" t="s">
         <v>20</v>
       </c>
+      <c r="E197">
+        <v>10.1174</v>
+      </c>
       <c r="I197">
         <v>0</v>
       </c>
@@ -9079,6 +9244,9 @@
       <c r="D198" t="s">
         <v>59</v>
       </c>
+      <c r="E198">
+        <v>0.2611</v>
+      </c>
       <c r="F198">
         <v>450</v>
       </c>
@@ -9167,6 +9335,9 @@
       <c r="D200" t="s">
         <v>59</v>
       </c>
+      <c r="E200">
+        <v>3.3871000000000002</v>
+      </c>
       <c r="F200">
         <v>400</v>
       </c>
@@ -9211,6 +9382,9 @@
       <c r="D201" t="s">
         <v>20</v>
       </c>
+      <c r="E201">
+        <v>2.0703999999999998</v>
+      </c>
       <c r="I201">
         <v>3</v>
       </c>
@@ -9328,6 +9502,9 @@
       <c r="D204" t="s">
         <v>59</v>
       </c>
+      <c r="E204">
+        <v>5.0761000000000003</v>
+      </c>
       <c r="F204">
         <v>295</v>
       </c>
@@ -9384,6 +9561,9 @@
       <c r="D205" t="s">
         <v>20</v>
       </c>
+      <c r="E205">
+        <v>2.1315</v>
+      </c>
       <c r="I205">
         <v>1</v>
       </c>
@@ -9662,6 +9842,9 @@
       <c r="D212" t="s">
         <v>59</v>
       </c>
+      <c r="E212">
+        <v>2.9378000000000002</v>
+      </c>
       <c r="F212">
         <v>425</v>
       </c>
@@ -9891,6 +10074,9 @@
       <c r="D217" t="s">
         <v>20</v>
       </c>
+      <c r="E217">
+        <v>0.26419999999999999</v>
+      </c>
       <c r="I217">
         <v>1</v>
       </c>
@@ -9923,6 +10109,9 @@
       <c r="D218" t="s">
         <v>59</v>
       </c>
+      <c r="E218">
+        <v>0.90629999999999999</v>
+      </c>
       <c r="F218">
         <v>470</v>
       </c>
@@ -9970,6 +10159,9 @@
       <c r="D219" t="s">
         <v>20</v>
       </c>
+      <c r="E219">
+        <v>0.64139999999999997</v>
+      </c>
       <c r="K219">
         <v>9</v>
       </c>
@@ -10093,6 +10285,9 @@
       <c r="D222" t="s">
         <v>59</v>
       </c>
+      <c r="E222">
+        <v>2.9319000000000002</v>
+      </c>
       <c r="F222">
         <v>415</v>
       </c>
@@ -10137,6 +10332,9 @@
       <c r="D223" t="s">
         <v>20</v>
       </c>
+      <c r="E223">
+        <v>0.68420000000000003</v>
+      </c>
       <c r="I223">
         <v>1</v>
       </c>
@@ -10169,6 +10367,9 @@
       <c r="D224" t="s">
         <v>59</v>
       </c>
+      <c r="E224">
+        <v>1.4156</v>
+      </c>
       <c r="F224">
         <v>520</v>
       </c>
@@ -10213,6 +10414,9 @@
       <c r="D225" t="s">
         <v>20</v>
       </c>
+      <c r="E225">
+        <v>0.59860000000000002</v>
+      </c>
       <c r="I225">
         <v>0</v>
       </c>
@@ -10345,6 +10549,9 @@
       <c r="D228" t="s">
         <v>59</v>
       </c>
+      <c r="E228">
+        <v>1.8625</v>
+      </c>
       <c r="F228">
         <v>320</v>
       </c>
@@ -10392,6 +10599,9 @@
       <c r="D229" t="s">
         <v>20</v>
       </c>
+      <c r="E229">
+        <v>0.21410000000000001</v>
+      </c>
       <c r="I229">
         <v>2</v>
       </c>
@@ -10424,6 +10634,9 @@
       <c r="D230" t="s">
         <v>59</v>
       </c>
+      <c r="E230">
+        <v>1.0859000000000001</v>
+      </c>
       <c r="F230">
         <v>290</v>
       </c>
@@ -10468,6 +10681,9 @@
       <c r="D231" t="s">
         <v>20</v>
       </c>
+      <c r="E231">
+        <v>1.6071</v>
+      </c>
       <c r="I231">
         <v>0</v>
       </c>
@@ -10547,6 +10763,9 @@
       <c r="D233" t="s">
         <v>20</v>
       </c>
+      <c r="E233">
+        <v>2.7366999999999999</v>
+      </c>
       <c r="I233">
         <v>0</v>
       </c>
@@ -10579,6 +10798,9 @@
       <c r="D234" t="s">
         <v>59</v>
       </c>
+      <c r="E234">
+        <v>3.9422999999999999</v>
+      </c>
       <c r="F234">
         <v>320</v>
       </c>
@@ -10623,6 +10845,9 @@
       <c r="D235" t="s">
         <v>20</v>
       </c>
+      <c r="E235">
+        <v>6.0029000000000003</v>
+      </c>
       <c r="I235">
         <v>4</v>
       </c>
@@ -10752,6 +10977,9 @@
       <c r="D238" t="s">
         <v>59</v>
       </c>
+      <c r="E238">
+        <v>1.0719000000000001</v>
+      </c>
       <c r="F238">
         <v>380</v>
       </c>
@@ -10796,6 +11024,9 @@
       <c r="D239" t="s">
         <v>20</v>
       </c>
+      <c r="E239">
+        <v>2.6381000000000001</v>
+      </c>
       <c r="I239">
         <v>3</v>
       </c>
@@ -10828,6 +11059,9 @@
       <c r="D240" t="s">
         <v>59</v>
       </c>
+      <c r="E240">
+        <v>3.1128999999999998</v>
+      </c>
       <c r="F240">
         <v>470</v>
       </c>
@@ -10875,6 +11109,9 @@
       <c r="D241" t="s">
         <v>20</v>
       </c>
+      <c r="E241">
+        <v>1.9097</v>
+      </c>
       <c r="I241">
         <v>3</v>
       </c>
@@ -10910,6 +11147,9 @@
       <c r="D242" t="s">
         <v>59</v>
       </c>
+      <c r="E242">
+        <v>1.2349000000000001</v>
+      </c>
       <c r="F242">
         <v>485</v>
       </c>
@@ -10957,6 +11197,9 @@
       <c r="D243" t="s">
         <v>20</v>
       </c>
+      <c r="E243">
+        <v>0.16450000000000001</v>
+      </c>
       <c r="I243">
         <v>4</v>
       </c>
@@ -11089,6 +11332,9 @@
       <c r="D246" t="s">
         <v>59</v>
       </c>
+      <c r="E246">
+        <v>3.2858999999999998</v>
+      </c>
       <c r="F246">
         <v>355</v>
       </c>
@@ -11133,6 +11379,9 @@
       <c r="D247" t="s">
         <v>20</v>
       </c>
+      <c r="E247">
+        <v>1.1911</v>
+      </c>
       <c r="I247">
         <v>0</v>
       </c>
@@ -11165,6 +11414,9 @@
       <c r="D248" t="s">
         <v>59</v>
       </c>
+      <c r="E248">
+        <v>3.7826</v>
+      </c>
       <c r="F248">
         <v>295</v>
       </c>
@@ -11221,6 +11473,9 @@
       <c r="D249" t="s">
         <v>20</v>
       </c>
+      <c r="E249">
+        <v>4.4771999999999998</v>
+      </c>
       <c r="I249">
         <v>1</v>
       </c>
@@ -11262,6 +11517,9 @@
       <c r="D250" t="s">
         <v>59</v>
       </c>
+      <c r="E250">
+        <v>5.3977000000000004</v>
+      </c>
       <c r="F250">
         <v>460</v>
       </c>
@@ -11306,6 +11564,9 @@
       <c r="D251" t="s">
         <v>20</v>
       </c>
+      <c r="E251">
+        <v>0.59079999999999999</v>
+      </c>
       <c r="I251">
         <v>2</v>
       </c>
@@ -11338,6 +11599,9 @@
       <c r="D252" t="s">
         <v>59</v>
       </c>
+      <c r="E252">
+        <v>13.577400000000001</v>
+      </c>
       <c r="F252">
         <v>305</v>
       </c>
@@ -11382,6 +11646,9 @@
       <c r="D253" t="s">
         <v>20</v>
       </c>
+      <c r="E253">
+        <v>1.4731000000000001</v>
+      </c>
       <c r="I253">
         <v>1</v>
       </c>
@@ -11414,6 +11681,9 @@
       <c r="D254" t="s">
         <v>59</v>
       </c>
+      <c r="E254">
+        <v>4.9489999999999998</v>
+      </c>
       <c r="F254">
         <v>230</v>
       </c>
@@ -11458,6 +11728,9 @@
       <c r="D255" t="s">
         <v>20</v>
       </c>
+      <c r="E255">
+        <v>0.83189999999999997</v>
+      </c>
       <c r="I255">
         <v>2</v>
       </c>
@@ -11490,6 +11763,9 @@
       <c r="D256" t="s">
         <v>59</v>
       </c>
+      <c r="E256">
+        <v>3.8107000000000002</v>
+      </c>
       <c r="F256">
         <v>420</v>
       </c>
@@ -11546,6 +11822,9 @@
       <c r="D257" t="s">
         <v>20</v>
       </c>
+      <c r="E257">
+        <v>0.93049999999999999</v>
+      </c>
       <c r="I257">
         <v>2</v>
       </c>
@@ -11587,6 +11866,9 @@
       <c r="D258" t="s">
         <v>59</v>
       </c>
+      <c r="E258">
+        <v>8.1943999999999999</v>
+      </c>
       <c r="F258">
         <v>460</v>
       </c>
@@ -11631,6 +11913,9 @@
       <c r="D259" t="s">
         <v>20</v>
       </c>
+      <c r="E259">
+        <v>0.77480000000000004</v>
+      </c>
       <c r="I259">
         <v>2</v>
       </c>
@@ -11663,6 +11948,9 @@
       <c r="D260" t="s">
         <v>59</v>
       </c>
+      <c r="E260">
+        <v>5.5411999999999999</v>
+      </c>
       <c r="F260">
         <v>375</v>
       </c>
@@ -11707,6 +11995,9 @@
       <c r="D261" t="s">
         <v>20</v>
       </c>
+      <c r="E261">
+        <v>1.2378</v>
+      </c>
       <c r="I261">
         <v>3</v>
       </c>
@@ -11739,6 +12030,9 @@
       <c r="D262" t="s">
         <v>59</v>
       </c>
+      <c r="E262">
+        <v>3.4197000000000002</v>
+      </c>
       <c r="F262">
         <v>290</v>
       </c>
@@ -11786,6 +12080,9 @@
       <c r="D263" t="s">
         <v>20</v>
       </c>
+      <c r="E263">
+        <v>1.5697000000000001</v>
+      </c>
       <c r="I263">
         <v>0</v>
       </c>
@@ -11818,6 +12115,9 @@
       <c r="D264" t="s">
         <v>59</v>
       </c>
+      <c r="E264">
+        <v>1.9666999999999999</v>
+      </c>
       <c r="F264">
         <v>435</v>
       </c>
@@ -11874,6 +12174,9 @@
       <c r="D265" t="s">
         <v>20</v>
       </c>
+      <c r="E265">
+        <v>0.26029999999999998</v>
+      </c>
       <c r="I265">
         <v>2</v>
       </c>
@@ -11915,6 +12218,9 @@
       <c r="D266" t="s">
         <v>59</v>
       </c>
+      <c r="E266">
+        <v>2.6025999999999998</v>
+      </c>
       <c r="F266">
         <v>440</v>
       </c>
@@ -11959,6 +12265,9 @@
       <c r="D267" t="s">
         <v>20</v>
       </c>
+      <c r="E267">
+        <v>0.41839999999999999</v>
+      </c>
       <c r="I267">
         <v>3</v>
       </c>
@@ -11991,6 +12300,9 @@
       <c r="D268" t="s">
         <v>59</v>
       </c>
+      <c r="E268">
+        <v>8.0741999999999994</v>
+      </c>
       <c r="F268">
         <v>455</v>
       </c>
@@ -12035,6 +12347,9 @@
       <c r="D269" t="s">
         <v>20</v>
       </c>
+      <c r="E269">
+        <v>1.3882000000000001</v>
+      </c>
       <c r="I269">
         <v>0</v>
       </c>
@@ -12067,6 +12382,9 @@
       <c r="D270" t="s">
         <v>59</v>
       </c>
+      <c r="E270">
+        <v>0.2918</v>
+      </c>
       <c r="F270">
         <v>290</v>
       </c>
@@ -12114,6 +12432,9 @@
       <c r="D271" t="s">
         <v>20</v>
       </c>
+      <c r="E271">
+        <v>0.76180000000000003</v>
+      </c>
       <c r="I271">
         <v>2</v>
       </c>
@@ -12146,6 +12467,9 @@
       <c r="D272" t="s">
         <v>59</v>
       </c>
+      <c r="E272">
+        <v>4.2573999999999996</v>
+      </c>
       <c r="F272">
         <v>265</v>
       </c>
@@ -12199,6 +12523,9 @@
       <c r="D273" t="s">
         <v>20</v>
       </c>
+      <c r="E273">
+        <v>0.95220000000000005</v>
+      </c>
       <c r="I273">
         <v>2</v>
       </c>
@@ -12240,6 +12567,9 @@
       <c r="D274" t="s">
         <v>59</v>
       </c>
+      <c r="E274">
+        <v>5.0362999999999998</v>
+      </c>
       <c r="F274">
         <v>435</v>
       </c>
@@ -12287,6 +12617,9 @@
       <c r="D275" t="s">
         <v>20</v>
       </c>
+      <c r="E275">
+        <v>1.0580000000000001</v>
+      </c>
       <c r="I275">
         <v>0</v>
       </c>
@@ -12319,6 +12652,9 @@
       <c r="D276" t="s">
         <v>59</v>
       </c>
+      <c r="E276">
+        <v>8.0553000000000008</v>
+      </c>
       <c r="F276">
         <v>330</v>
       </c>
@@ -12363,6 +12699,9 @@
       <c r="D277" t="s">
         <v>20</v>
       </c>
+      <c r="E277">
+        <v>0.80779999999999996</v>
+      </c>
       <c r="I277">
         <v>6</v>
       </c>
@@ -12401,6 +12740,9 @@
       <c r="D278" t="s">
         <v>59</v>
       </c>
+      <c r="E278">
+        <v>0.67300000000000004</v>
+      </c>
       <c r="F278">
         <v>410</v>
       </c>
@@ -12445,6 +12787,9 @@
       <c r="D279" t="s">
         <v>20</v>
       </c>
+      <c r="E279">
+        <v>2.2942999999999998</v>
+      </c>
       <c r="K279">
         <v>2</v>
       </c>
@@ -12527,6 +12872,9 @@
       <c r="D281" t="s">
         <v>20</v>
       </c>
+      <c r="E281">
+        <v>1.1367</v>
+      </c>
       <c r="I281">
         <v>3</v>
       </c>
@@ -12615,6 +12963,9 @@
       <c r="D283" t="s">
         <v>20</v>
       </c>
+      <c r="E283">
+        <v>1.8268</v>
+      </c>
       <c r="I283">
         <v>0</v>
       </c>
@@ -12726,6 +13077,9 @@
       <c r="D286" t="s">
         <v>59</v>
       </c>
+      <c r="E286">
+        <v>0.93340000000000001</v>
+      </c>
       <c r="F286">
         <v>255</v>
       </c>
@@ -12770,6 +13124,9 @@
       <c r="D287" t="s">
         <v>20</v>
       </c>
+      <c r="E287">
+        <v>1.1987000000000001</v>
+      </c>
       <c r="I287">
         <v>1</v>
       </c>
@@ -12802,6 +13159,9 @@
       <c r="D288" t="s">
         <v>59</v>
       </c>
+      <c r="E288">
+        <v>2.6233</v>
+      </c>
       <c r="F288">
         <v>325</v>
       </c>
@@ -12855,6 +13215,9 @@
       <c r="D289" t="s">
         <v>20</v>
       </c>
+      <c r="E289">
+        <v>0.6583</v>
+      </c>
       <c r="I289">
         <v>0</v>
       </c>
@@ -12896,6 +13259,9 @@
       <c r="D290" t="s">
         <v>59</v>
       </c>
+      <c r="E290">
+        <v>1.6146</v>
+      </c>
       <c r="F290">
         <v>295</v>
       </c>
@@ -12940,6 +13306,9 @@
       <c r="D291" t="s">
         <v>20</v>
       </c>
+      <c r="E291">
+        <v>2.2700999999999998</v>
+      </c>
       <c r="I291">
         <v>0</v>
       </c>
@@ -12972,6 +13341,9 @@
       <c r="D292" t="s">
         <v>59</v>
       </c>
+      <c r="E292">
+        <v>1.9497</v>
+      </c>
       <c r="F292">
         <v>605</v>
       </c>
@@ -13019,6 +13391,9 @@
       <c r="D293" t="s">
         <v>20</v>
       </c>
+      <c r="E293">
+        <v>1.8531</v>
+      </c>
       <c r="I293">
         <v>0</v>
       </c>
@@ -13051,6 +13426,9 @@
       <c r="D294" t="s">
         <v>59</v>
       </c>
+      <c r="E294">
+        <v>1.3644000000000001</v>
+      </c>
       <c r="F294">
         <v>280</v>
       </c>
@@ -13101,6 +13479,9 @@
       <c r="D295" t="s">
         <v>20</v>
       </c>
+      <c r="E295">
+        <v>0.17710000000000001</v>
+      </c>
       <c r="I295">
         <v>3</v>
       </c>
@@ -13133,6 +13514,9 @@
       <c r="D296" t="s">
         <v>59</v>
       </c>
+      <c r="E296">
+        <v>0.76539999999999997</v>
+      </c>
       <c r="F296">
         <v>350</v>
       </c>
@@ -13189,6 +13573,9 @@
       <c r="D297" t="s">
         <v>20</v>
       </c>
+      <c r="E297">
+        <v>0.20949999999999999</v>
+      </c>
       <c r="I297">
         <v>3</v>
       </c>
@@ -13277,6 +13664,9 @@
       <c r="D299" t="s">
         <v>20</v>
       </c>
+      <c r="E299">
+        <v>0.29370000000000002</v>
+      </c>
       <c r="I299">
         <v>1</v>
       </c>
@@ -13353,6 +13743,9 @@
       <c r="D301" t="s">
         <v>20</v>
       </c>
+      <c r="E301">
+        <v>4.5900000000000003E-2</v>
+      </c>
       <c r="I301">
         <v>0</v>
       </c>
@@ -13385,6 +13778,9 @@
       <c r="D302" t="s">
         <v>59</v>
       </c>
+      <c r="E302">
+        <v>1.6225000000000001</v>
+      </c>
       <c r="F302">
         <v>430</v>
       </c>
@@ -13441,6 +13837,9 @@
       <c r="D303" t="s">
         <v>20</v>
       </c>
+      <c r="E303">
+        <v>0.18840000000000001</v>
+      </c>
       <c r="I303">
         <v>0</v>
       </c>
@@ -13482,6 +13881,9 @@
       <c r="D304" t="s">
         <v>59</v>
       </c>
+      <c r="E304">
+        <v>0.95099999999999996</v>
+      </c>
       <c r="F304">
         <v>580</v>
       </c>
@@ -13526,6 +13928,9 @@
       <c r="D305" t="s">
         <v>20</v>
       </c>
+      <c r="E305">
+        <v>0.16039999999999999</v>
+      </c>
       <c r="I305">
         <v>0</v>
       </c>
@@ -13558,6 +13963,9 @@
       <c r="D306" t="s">
         <v>59</v>
       </c>
+      <c r="E306">
+        <v>1.0387999999999999</v>
+      </c>
       <c r="F306">
         <v>290</v>
       </c>
@@ -13602,6 +14010,9 @@
       <c r="D307" t="s">
         <v>20</v>
       </c>
+      <c r="E307">
+        <v>0.66679999999999995</v>
+      </c>
       <c r="I307">
         <v>3</v>
       </c>
@@ -13728,6 +14139,9 @@
       <c r="D310" t="s">
         <v>59</v>
       </c>
+      <c r="E310">
+        <v>0.76570000000000005</v>
+      </c>
       <c r="F310">
         <v>390</v>
       </c>
@@ -13772,6 +14186,9 @@
       <c r="D311" t="s">
         <v>20</v>
       </c>
+      <c r="E311">
+        <v>2.1852999999999998</v>
+      </c>
       <c r="I311">
         <v>1</v>
       </c>
@@ -13804,6 +14221,9 @@
       <c r="D312" t="s">
         <v>59</v>
       </c>
+      <c r="E312">
+        <v>1.748</v>
+      </c>
       <c r="F312">
         <v>180</v>
       </c>
@@ -13851,6 +14271,9 @@
       <c r="D313" t="s">
         <v>20</v>
       </c>
+      <c r="E313">
+        <v>3.7241</v>
+      </c>
       <c r="I313">
         <v>0</v>
       </c>
@@ -13883,6 +14306,9 @@
       <c r="D314" t="s">
         <v>59</v>
       </c>
+      <c r="E314">
+        <v>0.91200000000000003</v>
+      </c>
       <c r="F314">
         <v>485</v>
       </c>
@@ -13927,6 +14353,9 @@
       <c r="D315" t="s">
         <v>20</v>
       </c>
+      <c r="E315">
+        <v>0.65259999999999996</v>
+      </c>
       <c r="I315">
         <v>2</v>
       </c>
@@ -13959,6 +14388,9 @@
       <c r="D316" t="s">
         <v>59</v>
       </c>
+      <c r="E316">
+        <v>0.2893</v>
+      </c>
       <c r="F316">
         <v>235</v>
       </c>
@@ -14012,6 +14444,9 @@
       <c r="D317" t="s">
         <v>20</v>
       </c>
+      <c r="E317">
+        <v>1.3073999999999999</v>
+      </c>
       <c r="I317">
         <v>8</v>
       </c>
@@ -14056,6 +14491,9 @@
       <c r="D318" t="s">
         <v>59</v>
       </c>
+      <c r="E318">
+        <v>1.9657</v>
+      </c>
       <c r="F318">
         <v>450</v>
       </c>
@@ -14100,6 +14538,9 @@
       <c r="D319" t="s">
         <v>20</v>
       </c>
+      <c r="E319">
+        <v>4.0563000000000002</v>
+      </c>
       <c r="I319">
         <v>4</v>
       </c>
@@ -14132,6 +14573,9 @@
       <c r="D320" t="s">
         <v>59</v>
       </c>
+      <c r="E320">
+        <v>1.1774</v>
+      </c>
       <c r="F320">
         <v>495</v>
       </c>
@@ -14176,6 +14620,9 @@
       <c r="D321" t="s">
         <v>20</v>
       </c>
+      <c r="E321">
+        <v>2.6383999999999999</v>
+      </c>
       <c r="I321">
         <v>1</v>
       </c>
@@ -14267,6 +14714,9 @@
       <c r="D323" t="s">
         <v>20</v>
       </c>
+      <c r="E323">
+        <v>4.3929</v>
+      </c>
       <c r="I323">
         <v>1</v>
       </c>
@@ -14308,6 +14758,9 @@
       <c r="D324" t="s">
         <v>59</v>
       </c>
+      <c r="E324">
+        <v>3.6168</v>
+      </c>
       <c r="F324">
         <v>250</v>
       </c>
@@ -14352,6 +14805,9 @@
       <c r="D325" t="s">
         <v>20</v>
       </c>
+      <c r="E325">
+        <v>8.5571999999999999</v>
+      </c>
       <c r="I325">
         <v>1</v>
       </c>
@@ -14384,6 +14840,9 @@
       <c r="D326" t="s">
         <v>59</v>
       </c>
+      <c r="E326">
+        <v>1.3976999999999999</v>
+      </c>
       <c r="F326">
         <v>265</v>
       </c>
@@ -14428,6 +14887,9 @@
       <c r="D327" t="s">
         <v>20</v>
       </c>
+      <c r="E327">
+        <v>1.2338</v>
+      </c>
       <c r="I327">
         <v>3</v>
       </c>
@@ -14460,6 +14922,9 @@
       <c r="D328" t="s">
         <v>59</v>
       </c>
+      <c r="E328">
+        <v>4.7046999999999999</v>
+      </c>
       <c r="F328">
         <v>235</v>
       </c>
@@ -14507,6 +14972,9 @@
       <c r="D329" t="s">
         <v>20</v>
       </c>
+      <c r="E329">
+        <v>0.21049999999999999</v>
+      </c>
       <c r="I329">
         <v>3</v>
       </c>
@@ -14539,6 +15007,9 @@
       <c r="D330" t="s">
         <v>59</v>
       </c>
+      <c r="E330">
+        <v>0.3357</v>
+      </c>
       <c r="F330">
         <v>340</v>
       </c>
@@ -14586,6 +15057,9 @@
       <c r="D331" t="s">
         <v>20</v>
       </c>
+      <c r="E331">
+        <v>1.1342000000000001</v>
+      </c>
       <c r="I331">
         <v>1</v>
       </c>
@@ -14618,6 +15092,9 @@
       <c r="D332" t="s">
         <v>59</v>
       </c>
+      <c r="E332">
+        <v>4.5376000000000003</v>
+      </c>
       <c r="F332">
         <v>315</v>
       </c>
@@ -14671,6 +15148,9 @@
       <c r="D333" t="s">
         <v>20</v>
       </c>
+      <c r="E333">
+        <v>3.7625999999999999</v>
+      </c>
       <c r="I333">
         <v>2</v>
       </c>
@@ -14712,6 +15192,9 @@
       <c r="D334" t="s">
         <v>59</v>
       </c>
+      <c r="E334">
+        <v>0.21909999999999999</v>
+      </c>
       <c r="F334">
         <v>280</v>
       </c>
@@ -14756,6 +15239,9 @@
       <c r="D335" t="s">
         <v>20</v>
       </c>
+      <c r="E335">
+        <v>1.2497</v>
+      </c>
       <c r="I335">
         <v>2</v>
       </c>
@@ -14832,6 +15318,9 @@
       <c r="D337" t="s">
         <v>20</v>
       </c>
+      <c r="E337">
+        <v>1.6453</v>
+      </c>
       <c r="I337">
         <v>1</v>
       </c>
@@ -14864,6 +15353,9 @@
       <c r="D338" t="s">
         <v>59</v>
       </c>
+      <c r="E338">
+        <v>1.1654</v>
+      </c>
       <c r="F338">
         <v>390</v>
       </c>
@@ -14914,6 +15406,9 @@
       <c r="D339" t="s">
         <v>20</v>
       </c>
+      <c r="E339">
+        <v>0.32319999999999999</v>
+      </c>
       <c r="I339">
         <v>1</v>
       </c>
@@ -15049,6 +15544,9 @@
       <c r="D342" t="s">
         <v>59</v>
       </c>
+      <c r="E342">
+        <v>0.50139999999999996</v>
+      </c>
       <c r="F342">
         <v>260</v>
       </c>
@@ -15093,6 +15591,9 @@
       <c r="D343" t="s">
         <v>20</v>
       </c>
+      <c r="E343">
+        <v>11.7578</v>
+      </c>
       <c r="I343">
         <v>1</v>
       </c>
@@ -15172,6 +15673,9 @@
       <c r="D345" t="s">
         <v>20</v>
       </c>
+      <c r="E345">
+        <v>7.1544999999999996</v>
+      </c>
       <c r="I345">
         <v>0</v>
       </c>
@@ -15430,6 +15934,9 @@
       <c r="D351" t="s">
         <v>20</v>
       </c>
+      <c r="E351">
+        <v>0.69340000000000002</v>
+      </c>
       <c r="I351">
         <v>2</v>
       </c>
@@ -15462,6 +15969,9 @@
       <c r="D352" t="s">
         <v>59</v>
       </c>
+      <c r="E352">
+        <v>0.79879999999999995</v>
+      </c>
       <c r="F352">
         <v>630</v>
       </c>
@@ -15506,6 +16016,9 @@
       <c r="D353" t="s">
         <v>20</v>
       </c>
+      <c r="E353">
+        <v>1.3747</v>
+      </c>
       <c r="I353">
         <v>1</v>
       </c>
@@ -15538,6 +16051,9 @@
       <c r="D354" t="s">
         <v>59</v>
       </c>
+      <c r="E354">
+        <v>0.73480000000000001</v>
+      </c>
       <c r="F354">
         <v>455</v>
       </c>
@@ -15717,6 +16233,9 @@
       <c r="D358" t="s">
         <v>59</v>
       </c>
+      <c r="E358">
+        <v>0.28129999999999999</v>
+      </c>
       <c r="F358">
         <v>470</v>
       </c>
@@ -15761,6 +16280,9 @@
       <c r="D359" t="s">
         <v>20</v>
       </c>
+      <c r="E359">
+        <v>1.8422000000000001</v>
+      </c>
       <c r="I359">
         <v>5</v>
       </c>
@@ -15793,6 +16315,9 @@
       <c r="D360" t="s">
         <v>59</v>
       </c>
+      <c r="E360">
+        <v>6.6993</v>
+      </c>
       <c r="F360">
         <v>330</v>
       </c>
@@ -15960,6 +16485,9 @@
       <c r="D364" t="s">
         <v>59</v>
       </c>
+      <c r="E364">
+        <v>3.5354999999999999</v>
+      </c>
       <c r="F364">
         <v>370</v>
       </c>
@@ -20654,6 +21182,9 @@
       <c r="D470" t="s">
         <v>20</v>
       </c>
+      <c r="E470">
+        <v>0.36180000000000001</v>
+      </c>
       <c r="I470">
         <v>0</v>
       </c>
@@ -20686,6 +21217,9 @@
       <c r="D471" t="s">
         <v>59</v>
       </c>
+      <c r="E471">
+        <v>1.3521000000000001</v>
+      </c>
       <c r="F471">
         <v>200</v>
       </c>
@@ -20794,6 +21328,9 @@
       </c>
       <c r="D473" t="s">
         <v>20</v>
+      </c>
+      <c r="E473">
+        <v>6.3700000000000007E-2</v>
       </c>
       <c r="I473">
         <v>0</v>

--- a/rdm.gradient.2019.datasheet.xlsx
+++ b/rdm.gradient.2019.datasheet.xlsx
@@ -365,8 +365,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -650,8 +651,8 @@
   <dimension ref="A1:V635"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A190" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E192" sqref="E192"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A113" sqref="A113:XFD113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -749,6 +750,9 @@
       <c r="D2" t="s">
         <v>59</v>
       </c>
+      <c r="E2">
+        <v>9.9628999999999994</v>
+      </c>
       <c r="F2">
         <v>355</v>
       </c>
@@ -802,6 +806,9 @@
       <c r="D3" t="s">
         <v>20</v>
       </c>
+      <c r="E3">
+        <v>2.5404</v>
+      </c>
       <c r="I3">
         <v>15</v>
       </c>
@@ -837,6 +844,9 @@
       <c r="D4" t="s">
         <v>59</v>
       </c>
+      <c r="E4">
+        <v>5.7949000000000002</v>
+      </c>
       <c r="F4">
         <v>430</v>
       </c>
@@ -884,6 +894,9 @@
       <c r="D5" t="s">
         <v>20</v>
       </c>
+      <c r="E5">
+        <v>4.2241999999999997</v>
+      </c>
       <c r="I5">
         <v>1</v>
       </c>
@@ -919,6 +932,9 @@
       <c r="D6" t="s">
         <v>59</v>
       </c>
+      <c r="E6">
+        <v>3.4054000000000002</v>
+      </c>
       <c r="F6">
         <v>520</v>
       </c>
@@ -1004,6 +1020,9 @@
       <c r="D8" t="s">
         <v>59</v>
       </c>
+      <c r="E8">
+        <v>1.7950999999999999</v>
+      </c>
       <c r="F8">
         <v>370</v>
       </c>
@@ -1051,6 +1070,9 @@
       <c r="D9" t="s">
         <v>20</v>
       </c>
+      <c r="E9">
+        <v>3.6812999999999998</v>
+      </c>
       <c r="I9">
         <v>0</v>
       </c>
@@ -1086,6 +1108,9 @@
       <c r="D10" t="s">
         <v>59</v>
       </c>
+      <c r="E10">
+        <v>4.2586000000000004</v>
+      </c>
       <c r="F10">
         <v>455</v>
       </c>
@@ -1133,6 +1158,9 @@
       <c r="D11" t="s">
         <v>20</v>
       </c>
+      <c r="E11">
+        <v>3.4074</v>
+      </c>
       <c r="I11">
         <v>0</v>
       </c>
@@ -1168,6 +1196,9 @@
       <c r="D12" t="s">
         <v>59</v>
       </c>
+      <c r="E12">
+        <v>2.5606</v>
+      </c>
       <c r="F12">
         <v>275</v>
       </c>
@@ -1224,6 +1255,9 @@
       <c r="D13" t="s">
         <v>20</v>
       </c>
+      <c r="E13">
+        <v>1.8807</v>
+      </c>
       <c r="I13">
         <v>7</v>
       </c>
@@ -1268,6 +1302,9 @@
       <c r="D14" t="s">
         <v>59</v>
       </c>
+      <c r="E14">
+        <v>2.9022999999999999</v>
+      </c>
       <c r="F14">
         <v>275</v>
       </c>
@@ -1315,6 +1352,9 @@
       <c r="D15" t="s">
         <v>20</v>
       </c>
+      <c r="E15">
+        <v>0.60829999999999995</v>
+      </c>
       <c r="I15">
         <v>5</v>
       </c>
@@ -1350,6 +1390,9 @@
       <c r="D16" t="s">
         <v>59</v>
       </c>
+      <c r="E16">
+        <v>5.9177</v>
+      </c>
       <c r="F16">
         <v>310</v>
       </c>
@@ -1406,6 +1449,9 @@
       <c r="D17" t="s">
         <v>20</v>
       </c>
+      <c r="E17">
+        <v>2.8927999999999998</v>
+      </c>
       <c r="I17">
         <v>0</v>
       </c>
@@ -1450,6 +1496,9 @@
       <c r="D18" t="s">
         <v>59</v>
       </c>
+      <c r="E18">
+        <v>4.4363999999999999</v>
+      </c>
       <c r="F18">
         <v>135</v>
       </c>
@@ -1497,6 +1546,9 @@
       <c r="D19" t="s">
         <v>20</v>
       </c>
+      <c r="E19">
+        <v>0.36</v>
+      </c>
       <c r="I19">
         <v>5</v>
       </c>
@@ -1814,6 +1866,9 @@
       <c r="D26" t="s">
         <v>59</v>
       </c>
+      <c r="E26">
+        <v>4.7470999999999997</v>
+      </c>
       <c r="F26">
         <v>175</v>
       </c>
@@ -1861,6 +1916,9 @@
       <c r="D27" t="s">
         <v>20</v>
       </c>
+      <c r="E27">
+        <v>1.8113999999999999</v>
+      </c>
       <c r="I27">
         <v>0</v>
       </c>
@@ -1896,6 +1954,9 @@
       <c r="D28" t="s">
         <v>59</v>
       </c>
+      <c r="E28">
+        <v>4.0217000000000001</v>
+      </c>
       <c r="F28">
         <v>530</v>
       </c>
@@ -1943,6 +2004,9 @@
       <c r="D29" t="s">
         <v>20</v>
       </c>
+      <c r="E29">
+        <v>1.1736</v>
+      </c>
       <c r="I29">
         <v>1</v>
       </c>
@@ -1978,6 +2042,9 @@
       <c r="D30" t="s">
         <v>59</v>
       </c>
+      <c r="E30">
+        <v>4.8583999999999996</v>
+      </c>
       <c r="F30">
         <v>565</v>
       </c>
@@ -2025,6 +2092,9 @@
       <c r="D31" t="s">
         <v>20</v>
       </c>
+      <c r="E31">
+        <v>2.6166</v>
+      </c>
       <c r="I31">
         <v>1</v>
       </c>
@@ -2060,6 +2130,9 @@
       <c r="D32" t="s">
         <v>59</v>
       </c>
+      <c r="E32">
+        <v>1.9785999999999999</v>
+      </c>
       <c r="F32">
         <v>580</v>
       </c>
@@ -2116,6 +2189,9 @@
       <c r="D33" t="s">
         <v>20</v>
       </c>
+      <c r="E33">
+        <v>4.6700999999999997</v>
+      </c>
       <c r="I33">
         <v>0</v>
       </c>
@@ -2160,6 +2236,9 @@
       <c r="D34" t="s">
         <v>59</v>
       </c>
+      <c r="E34">
+        <v>4.28</v>
+      </c>
       <c r="F34">
         <v>265</v>
       </c>
@@ -2207,6 +2286,9 @@
       <c r="D35" t="s">
         <v>20</v>
       </c>
+      <c r="E35">
+        <v>1.8539000000000001</v>
+      </c>
       <c r="I35">
         <v>2</v>
       </c>
@@ -5542,35 +5624,38 @@
         <v>87</v>
       </c>
     </row>
-    <row r="113" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
+    <row r="113" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B113" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C113">
+      <c r="C113" s="1">
         <v>17</v>
       </c>
-      <c r="D113" t="s">
-        <v>20</v>
-      </c>
-      <c r="I113">
+      <c r="D113" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E113" s="1">
+        <v>0</v>
+      </c>
+      <c r="I113" s="1">
         <v>4</v>
       </c>
-      <c r="K113">
+      <c r="K113" s="1">
         <v>22</v>
       </c>
-      <c r="L113">
+      <c r="L113" s="1">
         <v>5</v>
       </c>
-      <c r="M113">
-        <v>0</v>
-      </c>
-      <c r="N113">
+      <c r="M113" s="1">
+        <v>0</v>
+      </c>
+      <c r="N113" s="1">
         <v>95</v>
       </c>
-      <c r="U113" t="s">
+      <c r="U113" s="1" t="s">
         <v>87</v>
       </c>
     </row>
@@ -5587,6 +5672,9 @@
       <c r="D114" t="s">
         <v>59</v>
       </c>
+      <c r="E114">
+        <v>5.1817000000000002</v>
+      </c>
       <c r="F114">
         <v>220</v>
       </c>
@@ -5666,6 +5754,9 @@
       <c r="D116" t="s">
         <v>59</v>
       </c>
+      <c r="E116">
+        <v>1.3083</v>
+      </c>
       <c r="F116">
         <v>270</v>
       </c>
@@ -5719,6 +5810,9 @@
       <c r="D117" t="s">
         <v>20</v>
       </c>
+      <c r="E117">
+        <v>1.6032</v>
+      </c>
       <c r="I117">
         <v>5</v>
       </c>
@@ -5807,6 +5901,9 @@
       <c r="D119" t="s">
         <v>20</v>
       </c>
+      <c r="E119">
+        <v>0.58460000000000001</v>
+      </c>
       <c r="I119">
         <v>2</v>
       </c>
@@ -7162,6 +7259,9 @@
       <c r="D150" t="s">
         <v>59</v>
       </c>
+      <c r="E150">
+        <v>2.3784000000000001</v>
+      </c>
       <c r="F150">
         <v>375</v>
       </c>
@@ -7215,6 +7315,9 @@
       <c r="D151" t="s">
         <v>20</v>
       </c>
+      <c r="E151">
+        <v>1.9238999999999999</v>
+      </c>
       <c r="I151">
         <v>0</v>
       </c>
@@ -7652,6 +7755,9 @@
       <c r="D161" t="s">
         <v>20</v>
       </c>
+      <c r="E161">
+        <v>1.1917</v>
+      </c>
       <c r="I161">
         <v>0</v>
       </c>
@@ -7684,6 +7790,9 @@
       <c r="D162" t="s">
         <v>59</v>
       </c>
+      <c r="E162">
+        <v>0.54759999999999998</v>
+      </c>
       <c r="F162">
         <v>230</v>
       </c>
@@ -7728,6 +7837,9 @@
       <c r="D163" t="s">
         <v>20</v>
       </c>
+      <c r="E163">
+        <v>0.58819999999999995</v>
+      </c>
       <c r="I163">
         <v>0</v>
       </c>
@@ -7760,6 +7872,9 @@
       <c r="D164" t="s">
         <v>59</v>
       </c>
+      <c r="E164">
+        <v>1.2768999999999999</v>
+      </c>
       <c r="F164">
         <v>280</v>
       </c>
@@ -7804,6 +7919,9 @@
       <c r="D165" t="s">
         <v>20</v>
       </c>
+      <c r="E165">
+        <v>5.0624000000000002</v>
+      </c>
       <c r="I165">
         <v>3</v>
       </c>
@@ -7836,6 +7954,9 @@
       <c r="D166" t="s">
         <v>59</v>
       </c>
+      <c r="E166">
+        <v>7.5600000000000001E-2</v>
+      </c>
       <c r="F166">
         <v>355</v>
       </c>
@@ -7880,6 +8001,9 @@
       <c r="D167" t="s">
         <v>20</v>
       </c>
+      <c r="E167">
+        <v>0.35110000000000002</v>
+      </c>
       <c r="I167">
         <v>0</v>
       </c>
@@ -7912,6 +8036,9 @@
       <c r="D168" t="s">
         <v>59</v>
       </c>
+      <c r="E168">
+        <v>2.0379</v>
+      </c>
       <c r="F168">
         <v>315</v>
       </c>
@@ -7968,6 +8095,9 @@
       <c r="D169" t="s">
         <v>20</v>
       </c>
+      <c r="E169">
+        <v>4.1589999999999998</v>
+      </c>
       <c r="I169">
         <v>2</v>
       </c>
@@ -8009,6 +8139,9 @@
       <c r="D170" t="s">
         <v>59</v>
       </c>
+      <c r="E170">
+        <v>3.5762</v>
+      </c>
       <c r="F170">
         <v>695</v>
       </c>
@@ -8056,6 +8189,9 @@
       <c r="D171" t="s">
         <v>20</v>
       </c>
+      <c r="E171">
+        <v>1.7867999999999999</v>
+      </c>
       <c r="I171">
         <v>1</v>
       </c>
@@ -8088,6 +8224,9 @@
       <c r="D172" t="s">
         <v>59</v>
       </c>
+      <c r="E172">
+        <v>5.5369999999999999</v>
+      </c>
       <c r="F172">
         <v>455</v>
       </c>
@@ -8236,147 +8375,153 @@
         <v>87</v>
       </c>
     </row>
-    <row r="176" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A176" t="s">
+    <row r="176" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A176" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B176" t="s">
+      <c r="B176" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C176">
+      <c r="C176" s="1">
         <v>26</v>
       </c>
-      <c r="D176" t="s">
+      <c r="D176" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F176">
+      <c r="E176" s="1">
+        <v>3.49</v>
+      </c>
+      <c r="F176" s="1">
         <v>290</v>
       </c>
-      <c r="G176">
+      <c r="G176" s="1">
         <v>240</v>
       </c>
-      <c r="H176">
+      <c r="H176" s="1">
         <v>125</v>
       </c>
-      <c r="I176">
+      <c r="I176" s="1">
         <v>3</v>
       </c>
-      <c r="J176">
+      <c r="J176" s="1">
         <v>3</v>
       </c>
-      <c r="K176">
+      <c r="K176" s="1">
         <v>37</v>
       </c>
-      <c r="L176">
+      <c r="L176" s="1">
         <v>35</v>
       </c>
-      <c r="M176">
-        <v>0</v>
-      </c>
-      <c r="N176">
+      <c r="M176" s="1">
+        <v>0</v>
+      </c>
+      <c r="N176" s="1">
         <v>65</v>
       </c>
-      <c r="R176" t="s">
+      <c r="R176" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="S176" t="s">
+      <c r="S176" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="T176" t="s">
+      <c r="T176" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="U176" t="s">
+      <c r="U176" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="177" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A177" t="s">
+    <row r="177" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A177" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B177" t="s">
+      <c r="B177" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C177">
+      <c r="C177" s="1">
         <v>26</v>
       </c>
-      <c r="D177" t="s">
-        <v>20</v>
-      </c>
-      <c r="I177">
+      <c r="D177" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E177" s="1">
+        <v>0.94379999999999997</v>
+      </c>
+      <c r="I177" s="1">
         <v>4</v>
       </c>
-      <c r="K177">
+      <c r="K177" s="1">
         <v>22</v>
       </c>
-      <c r="L177">
+      <c r="L177" s="1">
         <v>15</v>
       </c>
-      <c r="M177">
-        <v>0</v>
-      </c>
-      <c r="N177">
+      <c r="M177" s="1">
+        <v>0</v>
+      </c>
+      <c r="N177" s="1">
         <v>85</v>
       </c>
-      <c r="R177" t="s">
+      <c r="R177" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="S177" t="s">
+      <c r="S177" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="T177" t="s">
+      <c r="T177" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="U177" t="s">
+      <c r="U177" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="178" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
+    <row r="178" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A178" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B178" t="s">
+      <c r="B178" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C178">
+      <c r="C178" s="1">
         <v>27</v>
       </c>
-      <c r="D178" t="s">
+      <c r="D178" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E178">
-        <v>3.49</v>
-      </c>
-      <c r="F178">
+      <c r="E178" s="1">
+        <v>3.6248</v>
+      </c>
+      <c r="F178" s="1">
         <v>190</v>
       </c>
-      <c r="G178">
+      <c r="G178" s="1">
         <v>165</v>
       </c>
-      <c r="H178">
+      <c r="H178" s="1">
         <v>90</v>
       </c>
-      <c r="I178">
+      <c r="I178" s="1">
         <v>2</v>
       </c>
-      <c r="J178">
-        <v>0</v>
-      </c>
-      <c r="K178">
+      <c r="J178" s="1">
+        <v>0</v>
+      </c>
+      <c r="K178" s="1">
         <v>25</v>
       </c>
-      <c r="L178">
+      <c r="L178" s="1">
         <v>75</v>
       </c>
-      <c r="M178">
-        <v>0</v>
-      </c>
-      <c r="N178">
+      <c r="M178" s="1">
+        <v>0</v>
+      </c>
+      <c r="N178" s="1">
         <v>25</v>
       </c>
-      <c r="Q178" t="s">
+      <c r="Q178" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="U178" t="s">
+      <c r="U178" s="1" t="s">
         <v>87</v>
       </c>
     </row>
@@ -8393,6 +8538,9 @@
       <c r="D179" t="s">
         <v>20</v>
       </c>
+      <c r="E179">
+        <v>4.9684999999999997</v>
+      </c>
       <c r="I179">
         <v>3</v>
       </c>
@@ -8762,38 +8910,38 @@
         <v>91</v>
       </c>
     </row>
-    <row r="187" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A187" t="s">
+    <row r="187" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A187" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B187" t="s">
+      <c r="B187" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C187">
+      <c r="C187" s="1">
         <v>1</v>
       </c>
-      <c r="D187" t="s">
-        <v>20</v>
-      </c>
-      <c r="E187">
-        <v>3.7233999999999998</v>
-      </c>
-      <c r="I187">
-        <v>0</v>
-      </c>
-      <c r="K187">
+      <c r="D187" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E187" s="1">
+        <v>1.9574</v>
+      </c>
+      <c r="I187" s="1">
+        <v>0</v>
+      </c>
+      <c r="K187" s="1">
         <v>17</v>
       </c>
-      <c r="L187">
+      <c r="L187" s="1">
         <v>60</v>
       </c>
-      <c r="M187">
-        <v>0</v>
-      </c>
-      <c r="N187">
+      <c r="M187" s="1">
+        <v>0</v>
+      </c>
+      <c r="N187" s="1">
         <v>40</v>
       </c>
-      <c r="U187" t="s">
+      <c r="U187" s="1" t="s">
         <v>91</v>
       </c>
     </row>
@@ -8810,6 +8958,9 @@
       <c r="D188" t="s">
         <v>59</v>
       </c>
+      <c r="E188">
+        <v>2.5613000000000001</v>
+      </c>
       <c r="F188">
         <v>410</v>
       </c>
@@ -8866,6 +9017,9 @@
       <c r="D189" t="s">
         <v>20</v>
       </c>
+      <c r="E189">
+        <v>0.6139</v>
+      </c>
       <c r="I189">
         <v>1</v>
       </c>
@@ -8992,6 +9146,9 @@
       <c r="D192" t="s">
         <v>59</v>
       </c>
+      <c r="E192">
+        <v>5.2461000000000002</v>
+      </c>
       <c r="F192">
         <v>685</v>
       </c>
@@ -9036,6 +9193,9 @@
       <c r="D193" t="s">
         <v>20</v>
       </c>
+      <c r="E193">
+        <v>0.3916</v>
+      </c>
       <c r="I193">
         <v>4</v>
       </c>
@@ -9303,6 +9463,9 @@
       <c r="D199" t="s">
         <v>20</v>
       </c>
+      <c r="E199" s="1">
+        <v>3.7233999999999998</v>
+      </c>
       <c r="I199">
         <v>3</v>
       </c>
@@ -9605,6 +9768,9 @@
       <c r="D206" t="s">
         <v>59</v>
       </c>
+      <c r="E206">
+        <v>1.8272999999999999</v>
+      </c>
       <c r="F206">
         <v>575</v>
       </c>
@@ -9649,6 +9815,9 @@
       <c r="D207" t="s">
         <v>20</v>
       </c>
+      <c r="E207">
+        <v>0.57099999999999995</v>
+      </c>
       <c r="I207">
         <v>4</v>
       </c>
@@ -9728,6 +9897,9 @@
       <c r="D209" t="s">
         <v>20</v>
       </c>
+      <c r="E209">
+        <v>0.25569999999999998</v>
+      </c>
       <c r="I209">
         <v>1</v>
       </c>
@@ -9810,6 +9982,9 @@
       <c r="D211" t="s">
         <v>20</v>
       </c>
+      <c r="E211">
+        <v>0.9587</v>
+      </c>
       <c r="I211">
         <v>2</v>
       </c>
@@ -9901,6 +10076,9 @@
       <c r="D213" t="s">
         <v>20</v>
       </c>
+      <c r="E213">
+        <v>0.44330000000000003</v>
+      </c>
       <c r="I213">
         <v>1</v>
       </c>
@@ -9995,6 +10173,9 @@
       <c r="D215" t="s">
         <v>20</v>
       </c>
+      <c r="E215">
+        <v>1.131</v>
+      </c>
       <c r="I215">
         <v>1</v>
       </c>
@@ -10027,6 +10208,9 @@
       <c r="D216" t="s">
         <v>59</v>
       </c>
+      <c r="E216">
+        <v>0</v>
+      </c>
       <c r="F216">
         <v>315</v>
       </c>
@@ -10191,6 +10375,9 @@
       <c r="D220" t="s">
         <v>59</v>
       </c>
+      <c r="E220">
+        <v>0.2944</v>
+      </c>
       <c r="F220">
         <v>375</v>
       </c>
@@ -10244,6 +10431,9 @@
       <c r="D221" t="s">
         <v>20</v>
       </c>
+      <c r="E221">
+        <v>0.27339999999999998</v>
+      </c>
       <c r="I221">
         <v>0</v>
       </c>
@@ -10449,6 +10639,9 @@
       <c r="D226" t="s">
         <v>59</v>
       </c>
+      <c r="E226">
+        <v>0.66469999999999996</v>
+      </c>
       <c r="F226">
         <v>305</v>
       </c>
@@ -10508,6 +10701,9 @@
       <c r="D227" t="s">
         <v>20</v>
       </c>
+      <c r="E227">
+        <v>3.7783000000000002</v>
+      </c>
       <c r="I227">
         <v>2</v>
       </c>
@@ -10716,6 +10912,9 @@
       <c r="D232" t="s">
         <v>59</v>
       </c>
+      <c r="E232">
+        <v>0</v>
+      </c>
       <c r="F232">
         <v>320</v>
       </c>
@@ -10880,6 +11079,9 @@
       <c r="D236" t="s">
         <v>59</v>
       </c>
+      <c r="E236">
+        <v>1.6736</v>
+      </c>
       <c r="F236">
         <v>380</v>
       </c>
@@ -10936,6 +11138,9 @@
       <c r="D237" t="s">
         <v>20</v>
       </c>
+      <c r="E237">
+        <v>8.5927000000000007</v>
+      </c>
       <c r="I237">
         <v>3</v>
       </c>
@@ -11232,6 +11437,9 @@
       <c r="D244" t="s">
         <v>59</v>
       </c>
+      <c r="E244">
+        <v>0</v>
+      </c>
       <c r="F244">
         <v>425</v>
       </c>
@@ -11291,6 +11499,9 @@
       <c r="D245" t="s">
         <v>20</v>
       </c>
+      <c r="E245">
+        <v>1.6039000000000001</v>
+      </c>
       <c r="I245">
         <v>0</v>
       </c>
@@ -12819,6 +13030,9 @@
       <c r="D280" t="s">
         <v>59</v>
       </c>
+      <c r="E280">
+        <v>0.12709999999999999</v>
+      </c>
       <c r="F280">
         <v>530</v>
       </c>
@@ -12998,6 +13212,9 @@
       <c r="D284" t="s">
         <v>59</v>
       </c>
+      <c r="E284">
+        <v>6.9348000000000001</v>
+      </c>
       <c r="F284">
         <v>425</v>
       </c>
@@ -13045,6 +13262,9 @@
       <c r="D285" t="s">
         <v>20</v>
       </c>
+      <c r="E285">
+        <v>0.44009999999999999</v>
+      </c>
       <c r="I285">
         <v>1</v>
       </c>
@@ -13617,6 +13837,9 @@
       <c r="D298" t="s">
         <v>59</v>
       </c>
+      <c r="E298">
+        <v>3.7827000000000002</v>
+      </c>
       <c r="F298">
         <v>355</v>
       </c>
@@ -13699,6 +13922,9 @@
       <c r="D300" t="s">
         <v>59</v>
       </c>
+      <c r="E300">
+        <v>4.2096</v>
+      </c>
       <c r="F300">
         <v>480</v>
       </c>
@@ -14045,6 +14271,9 @@
       <c r="D308" t="s">
         <v>59</v>
       </c>
+      <c r="E308">
+        <v>1.143</v>
+      </c>
       <c r="F308">
         <v>310</v>
       </c>
@@ -14098,6 +14327,9 @@
       <c r="D309" t="s">
         <v>20</v>
       </c>
+      <c r="E309">
+        <v>1.4325000000000001</v>
+      </c>
       <c r="I309">
         <v>2</v>
       </c>
@@ -15274,6 +15506,9 @@
       <c r="D336" t="s">
         <v>59</v>
       </c>
+      <c r="E336">
+        <v>2.8092000000000001</v>
+      </c>
       <c r="F336">
         <v>295</v>
       </c>
@@ -15708,6 +15943,9 @@
       <c r="D346" t="s">
         <v>59</v>
       </c>
+      <c r="E346">
+        <v>2.8620000000000001</v>
+      </c>
       <c r="F346">
         <v>490</v>
       </c>
@@ -15790,6 +16028,9 @@
       <c r="D348" t="s">
         <v>59</v>
       </c>
+      <c r="E348">
+        <v>5.6561000000000003</v>
+      </c>
       <c r="F348">
         <v>220</v>
       </c>
@@ -15846,6 +16087,9 @@
       <c r="D349" t="s">
         <v>20</v>
       </c>
+      <c r="E349">
+        <v>15.1671</v>
+      </c>
       <c r="I349">
         <v>2</v>
       </c>
@@ -16136,6 +16380,9 @@
       <c r="D356" t="s">
         <v>59</v>
       </c>
+      <c r="E356">
+        <v>9.9199999999999997E-2</v>
+      </c>
       <c r="F356">
         <v>360</v>
       </c>
@@ -16388,6 +16635,9 @@
       <c r="D362" t="s">
         <v>59</v>
       </c>
+      <c r="E362">
+        <v>3.1970000000000001</v>
+      </c>
       <c r="F362">
         <v>375</v>
       </c>
@@ -16570,6 +16820,9 @@
       <c r="D366" t="s">
         <v>59</v>
       </c>
+      <c r="E366">
+        <v>2.4279000000000002</v>
+      </c>
       <c r="F366">
         <v>160</v>
       </c>
@@ -16902,6 +17155,9 @@
       <c r="D373" t="s">
         <v>71</v>
       </c>
+      <c r="E373">
+        <v>1.2452000000000001</v>
+      </c>
       <c r="F373">
         <v>260</v>
       </c>
@@ -16949,6 +17205,9 @@
       <c r="D374" t="s">
         <v>20</v>
       </c>
+      <c r="E374">
+        <v>2.7014</v>
+      </c>
       <c r="I374">
         <v>4</v>
       </c>
@@ -16981,6 +17240,9 @@
       <c r="D375" t="s">
         <v>59</v>
       </c>
+      <c r="E375">
+        <v>1.6437999999999999</v>
+      </c>
       <c r="F375">
         <v>110</v>
       </c>
@@ -17025,6 +17287,9 @@
       <c r="D376" t="s">
         <v>71</v>
       </c>
+      <c r="E376">
+        <v>0</v>
+      </c>
       <c r="F376">
         <v>280</v>
       </c>
@@ -17069,6 +17334,9 @@
       <c r="D377" t="s">
         <v>20</v>
       </c>
+      <c r="E377">
+        <v>1.6198999999999999</v>
+      </c>
       <c r="I377">
         <v>3</v>
       </c>
@@ -17101,6 +17369,9 @@
       <c r="D378" t="s">
         <v>59</v>
       </c>
+      <c r="E378">
+        <v>2.8529</v>
+      </c>
       <c r="F378">
         <v>215</v>
       </c>
@@ -17149,7 +17420,7 @@
         <v>71</v>
       </c>
       <c r="E379">
-        <v>0</v>
+        <v>1.3454999999999999</v>
       </c>
       <c r="F379">
         <v>235</v>
@@ -17433,6 +17704,9 @@
       <c r="D385" t="s">
         <v>71</v>
       </c>
+      <c r="E385">
+        <v>0.871</v>
+      </c>
       <c r="F385">
         <v>180</v>
       </c>
@@ -17477,6 +17751,9 @@
       <c r="D386" t="s">
         <v>20</v>
       </c>
+      <c r="E386">
+        <v>3.238</v>
+      </c>
       <c r="I386">
         <v>1</v>
       </c>
@@ -17512,6 +17789,9 @@
       <c r="D387" t="s">
         <v>59</v>
       </c>
+      <c r="E387">
+        <v>1.6012</v>
+      </c>
       <c r="F387">
         <v>95</v>
       </c>
@@ -17606,6 +17886,9 @@
       <c r="D389" t="s">
         <v>20</v>
       </c>
+      <c r="E389">
+        <v>4.6173000000000002</v>
+      </c>
       <c r="I389">
         <v>4</v>
       </c>
@@ -17638,6 +17921,9 @@
       <c r="D390" t="s">
         <v>59</v>
       </c>
+      <c r="E390">
+        <v>4.5079000000000002</v>
+      </c>
       <c r="F390">
         <v>210</v>
       </c>
@@ -17682,6 +17968,9 @@
       <c r="D391" t="s">
         <v>71</v>
       </c>
+      <c r="E391">
+        <v>6.8569000000000004</v>
+      </c>
       <c r="F391">
         <v>310</v>
       </c>
@@ -17923,6 +18212,9 @@
       <c r="D396" t="s">
         <v>59</v>
       </c>
+      <c r="E396">
+        <v>0.91549999999999998</v>
+      </c>
       <c r="F396">
         <v>100</v>
       </c>
@@ -17967,6 +18259,9 @@
       <c r="D397" t="s">
         <v>71</v>
       </c>
+      <c r="E397">
+        <v>2.6625000000000001</v>
+      </c>
       <c r="F397">
         <v>160</v>
       </c>
@@ -18011,6 +18306,9 @@
       <c r="D398" t="s">
         <v>20</v>
       </c>
+      <c r="E398">
+        <v>9.6249000000000002</v>
+      </c>
       <c r="I398">
         <v>3</v>
       </c>
@@ -18043,6 +18341,9 @@
       <c r="D399" t="s">
         <v>59</v>
       </c>
+      <c r="E399">
+        <v>0.2082</v>
+      </c>
       <c r="F399">
         <v>185</v>
       </c>
@@ -18090,6 +18391,9 @@
       <c r="D400" t="s">
         <v>71</v>
       </c>
+      <c r="E400">
+        <v>0.63639999999999997</v>
+      </c>
       <c r="F400">
         <v>185</v>
       </c>
@@ -18169,6 +18473,9 @@
       <c r="D402" t="s">
         <v>59</v>
       </c>
+      <c r="E402">
+        <v>4.6910999999999996</v>
+      </c>
       <c r="F402">
         <v>125</v>
       </c>
@@ -18448,6 +18755,9 @@
       <c r="D408" t="s">
         <v>59</v>
       </c>
+      <c r="E408">
+        <v>1.4538</v>
+      </c>
       <c r="F408">
         <v>240</v>
       </c>
@@ -18498,6 +18808,9 @@
       <c r="D409" t="s">
         <v>71</v>
       </c>
+      <c r="E409">
+        <v>0.44069999999999998</v>
+      </c>
       <c r="F409">
         <v>280</v>
       </c>
@@ -18577,6 +18890,9 @@
       <c r="D411" t="s">
         <v>59</v>
       </c>
+      <c r="E411">
+        <v>1.7303999999999999</v>
+      </c>
       <c r="F411">
         <v>140</v>
       </c>
@@ -18621,6 +18937,9 @@
       <c r="D412" t="s">
         <v>71</v>
       </c>
+      <c r="E412">
+        <v>0.81089999999999995</v>
+      </c>
       <c r="F412">
         <v>325</v>
       </c>
@@ -18665,6 +18984,9 @@
       <c r="D413" t="s">
         <v>20</v>
       </c>
+      <c r="E413">
+        <v>1.9019999999999999</v>
+      </c>
       <c r="I413">
         <v>1</v>
       </c>
@@ -18697,6 +19019,9 @@
       <c r="D414" t="s">
         <v>59</v>
       </c>
+      <c r="E414">
+        <v>1.6714</v>
+      </c>
       <c r="F414">
         <v>180</v>
       </c>
@@ -18741,6 +19066,9 @@
       <c r="D415" t="s">
         <v>71</v>
       </c>
+      <c r="E415">
+        <v>0.59099999999999997</v>
+      </c>
       <c r="F415">
         <v>315</v>
       </c>
@@ -18785,6 +19113,9 @@
       <c r="D416" t="s">
         <v>20</v>
       </c>
+      <c r="E416">
+        <v>0.67400000000000004</v>
+      </c>
       <c r="I416">
         <v>7</v>
       </c>
@@ -18973,6 +19304,9 @@
       <c r="D420" t="s">
         <v>59</v>
       </c>
+      <c r="E420">
+        <v>4.3501000000000003</v>
+      </c>
       <c r="F420">
         <v>215</v>
       </c>
@@ -19017,6 +19351,9 @@
       <c r="D421" t="s">
         <v>71</v>
       </c>
+      <c r="E421">
+        <v>0.98250000000000004</v>
+      </c>
       <c r="F421">
         <v>325</v>
       </c>
@@ -19061,6 +19398,9 @@
       <c r="D422" t="s">
         <v>20</v>
       </c>
+      <c r="E422">
+        <v>0.11169999999999999</v>
+      </c>
       <c r="I422">
         <v>6</v>
       </c>
@@ -19093,6 +19433,9 @@
       <c r="D423" t="s">
         <v>59</v>
       </c>
+      <c r="E423">
+        <v>0.61409999999999998</v>
+      </c>
       <c r="F423">
         <v>160</v>
       </c>
@@ -19137,6 +19480,9 @@
       <c r="D424" t="s">
         <v>71</v>
       </c>
+      <c r="E424">
+        <v>2.5857999999999999</v>
+      </c>
       <c r="F424">
         <v>260</v>
       </c>
@@ -19181,6 +19527,9 @@
       <c r="D425" t="s">
         <v>20</v>
       </c>
+      <c r="E425">
+        <v>2.9508000000000001</v>
+      </c>
       <c r="I425">
         <v>1</v>
       </c>
@@ -19213,6 +19562,9 @@
       <c r="D426" t="s">
         <v>59</v>
       </c>
+      <c r="E426">
+        <v>1.2349000000000001</v>
+      </c>
       <c r="F426">
         <v>225</v>
       </c>
@@ -19260,6 +19612,9 @@
       <c r="D427" t="s">
         <v>71</v>
       </c>
+      <c r="E427">
+        <v>1.8757999999999999</v>
+      </c>
       <c r="F427">
         <v>195</v>
       </c>
@@ -19304,6 +19659,9 @@
       <c r="D428" t="s">
         <v>20</v>
       </c>
+      <c r="E428">
+        <v>2.2010999999999998</v>
+      </c>
       <c r="I428">
         <v>9</v>
       </c>
@@ -19498,6 +19856,9 @@
       <c r="D432" t="s">
         <v>59</v>
       </c>
+      <c r="E432">
+        <v>7.0999999999999994E-2</v>
+      </c>
       <c r="F432">
         <v>120</v>
       </c>
@@ -19542,6 +19903,9 @@
       <c r="D433" t="s">
         <v>71</v>
       </c>
+      <c r="E433">
+        <v>1.9347000000000001</v>
+      </c>
       <c r="F433">
         <v>250</v>
       </c>
@@ -19624,6 +19988,9 @@
       <c r="D435" t="s">
         <v>59</v>
       </c>
+      <c r="E435">
+        <v>2.1408</v>
+      </c>
       <c r="F435">
         <v>155</v>
       </c>
@@ -19668,6 +20035,9 @@
       <c r="D436" t="s">
         <v>71</v>
       </c>
+      <c r="E436">
+        <v>1.4505999999999999</v>
+      </c>
       <c r="F436">
         <v>365</v>
       </c>
@@ -19712,6 +20082,9 @@
       <c r="D437" t="s">
         <v>20</v>
       </c>
+      <c r="E437">
+        <v>1.3611</v>
+      </c>
       <c r="I437">
         <v>4</v>
       </c>
@@ -19744,6 +20117,9 @@
       <c r="D438" t="s">
         <v>59</v>
       </c>
+      <c r="E438">
+        <v>1.1267</v>
+      </c>
       <c r="F438">
         <v>225</v>
       </c>
@@ -19788,6 +20164,9 @@
       <c r="D439" t="s">
         <v>71</v>
       </c>
+      <c r="E439">
+        <v>0.17219999999999999</v>
+      </c>
       <c r="F439">
         <v>310</v>
       </c>
@@ -19832,6 +20211,9 @@
       <c r="D440" t="s">
         <v>20</v>
       </c>
+      <c r="E440">
+        <v>0.99239999999999995</v>
+      </c>
       <c r="I440">
         <v>1</v>
       </c>
@@ -20020,6 +20402,9 @@
       <c r="D444" t="s">
         <v>59</v>
       </c>
+      <c r="E444">
+        <v>2.1819000000000002</v>
+      </c>
       <c r="F444">
         <v>220</v>
       </c>
@@ -20067,6 +20452,9 @@
       <c r="D445" t="s">
         <v>71</v>
       </c>
+      <c r="E445">
+        <v>1.2824</v>
+      </c>
       <c r="F445">
         <v>340</v>
       </c>
@@ -20111,6 +20499,9 @@
       <c r="D446" t="s">
         <v>20</v>
       </c>
+      <c r="E446">
+        <v>0.1353</v>
+      </c>
       <c r="I446">
         <v>2</v>
       </c>
@@ -20143,6 +20534,9 @@
       <c r="D447" t="s">
         <v>59</v>
       </c>
+      <c r="E447">
+        <v>1.3746</v>
+      </c>
       <c r="F447">
         <v>190</v>
       </c>
@@ -20187,6 +20581,9 @@
       <c r="D448" t="s">
         <v>71</v>
       </c>
+      <c r="E448">
+        <v>1.3897999999999999</v>
+      </c>
       <c r="F448">
         <v>245</v>
       </c>
@@ -20266,6 +20663,9 @@
       <c r="D450" t="s">
         <v>59</v>
       </c>
+      <c r="E450">
+        <v>4.7343000000000002</v>
+      </c>
       <c r="F450">
         <v>220</v>
       </c>
@@ -20310,6 +20710,9 @@
       <c r="D451" t="s">
         <v>71</v>
       </c>
+      <c r="E451">
+        <v>1.1369</v>
+      </c>
       <c r="F451">
         <v>425</v>
       </c>
@@ -20601,6 +21004,9 @@
       <c r="D457" t="s">
         <v>71</v>
       </c>
+      <c r="E457">
+        <v>2.0139</v>
+      </c>
       <c r="F457">
         <v>465</v>
       </c>
@@ -20883,6 +21289,9 @@
       <c r="D463" t="s">
         <v>71</v>
       </c>
+      <c r="E463">
+        <v>3.601</v>
+      </c>
       <c r="F463">
         <v>390</v>
       </c>
@@ -21012,6 +21421,9 @@
       <c r="D466" t="s">
         <v>71</v>
       </c>
+      <c r="E466">
+        <v>0.68420000000000003</v>
+      </c>
       <c r="F466">
         <v>305</v>
       </c>
@@ -21138,6 +21550,9 @@
       <c r="D469" t="s">
         <v>71</v>
       </c>
+      <c r="E469">
+        <v>0.85170000000000001</v>
+      </c>
       <c r="F469">
         <v>270</v>
       </c>
@@ -21420,6 +21835,9 @@
       <c r="D475" t="s">
         <v>71</v>
       </c>
+      <c r="E475">
+        <v>0.25130000000000002</v>
+      </c>
       <c r="F475">
         <v>275</v>
       </c>
@@ -21546,6 +21964,9 @@
       <c r="D478" t="s">
         <v>71</v>
       </c>
+      <c r="E478">
+        <v>0.68159999999999998</v>
+      </c>
       <c r="F478">
         <v>245</v>
       </c>
@@ -21957,6 +22378,9 @@
       <c r="D487" t="s">
         <v>71</v>
       </c>
+      <c r="E487">
+        <v>2.7212999999999998</v>
+      </c>
       <c r="F487">
         <v>295</v>
       </c>
@@ -22083,6 +22507,9 @@
       <c r="D490" t="s">
         <v>71</v>
       </c>
+      <c r="E490">
+        <v>1.3665</v>
+      </c>
       <c r="F490">
         <v>270</v>
       </c>
@@ -22209,6 +22636,9 @@
       <c r="D493" t="s">
         <v>71</v>
       </c>
+      <c r="E493">
+        <v>3.0386000000000002</v>
+      </c>
       <c r="F493">
         <v>265</v>
       </c>
@@ -22344,6 +22774,9 @@
       <c r="D496" t="s">
         <v>71</v>
       </c>
+      <c r="E496">
+        <v>0.19259999999999999</v>
+      </c>
       <c r="F496">
         <v>315</v>
       </c>
@@ -22491,6 +22924,9 @@
       <c r="D499" t="s">
         <v>71</v>
       </c>
+      <c r="E499">
+        <v>5.6184000000000003</v>
+      </c>
       <c r="F499">
         <v>355</v>
       </c>
@@ -22617,6 +23053,9 @@
       <c r="D502" t="s">
         <v>71</v>
       </c>
+      <c r="E502">
+        <v>2.0947</v>
+      </c>
       <c r="F502">
         <v>375</v>
       </c>
@@ -22661,6 +23100,9 @@
       <c r="D503" t="s">
         <v>20</v>
       </c>
+      <c r="E503">
+        <v>4.48E-2</v>
+      </c>
       <c r="I503">
         <v>0</v>
       </c>
@@ -22740,6 +23182,9 @@
       <c r="D505" t="s">
         <v>71</v>
       </c>
+      <c r="E505">
+        <v>3.2978999999999998</v>
+      </c>
       <c r="F505">
         <v>145</v>
       </c>
@@ -22771,35 +23216,38 @@
         <v>96</v>
       </c>
     </row>
-    <row r="506" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A506" t="s">
+    <row r="506" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A506" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B506" t="s">
+      <c r="B506" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C506">
+      <c r="C506" s="1">
         <v>17</v>
       </c>
-      <c r="D506" t="s">
-        <v>20</v>
-      </c>
-      <c r="I506">
-        <v>0</v>
-      </c>
-      <c r="K506">
+      <c r="D506" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E506" s="1">
+        <v>0</v>
+      </c>
+      <c r="I506" s="1">
+        <v>0</v>
+      </c>
+      <c r="K506" s="1">
         <v>6</v>
       </c>
-      <c r="L506">
+      <c r="L506" s="1">
         <v>6</v>
       </c>
-      <c r="M506">
-        <v>0</v>
-      </c>
-      <c r="N506">
+      <c r="M506" s="1">
+        <v>0</v>
+      </c>
+      <c r="N506" s="1">
         <v>94</v>
       </c>
-      <c r="U506" t="s">
+      <c r="U506" s="1" t="s">
         <v>97</v>
       </c>
     </row>
@@ -22817,7 +23265,7 @@
         <v>59</v>
       </c>
       <c r="E507">
-        <v>0</v>
+        <v>0.82020000000000004</v>
       </c>
       <c r="F507">
         <v>185</v>
@@ -22872,6 +23320,9 @@
       <c r="D508" t="s">
         <v>71</v>
       </c>
+      <c r="E508">
+        <v>0.52339999999999998</v>
+      </c>
       <c r="F508">
         <v>330</v>
       </c>
@@ -22925,6 +23376,9 @@
       <c r="D509" t="s">
         <v>20</v>
       </c>
+      <c r="E509">
+        <v>0.39860000000000001</v>
+      </c>
       <c r="I509">
         <v>0</v>
       </c>
@@ -23013,6 +23467,9 @@
       <c r="D511" t="s">
         <v>71</v>
       </c>
+      <c r="E511">
+        <v>1.3883000000000001</v>
+      </c>
       <c r="F511">
         <v>385</v>
       </c>
@@ -23057,6 +23514,9 @@
       <c r="D512" t="s">
         <v>20</v>
       </c>
+      <c r="E512">
+        <v>0.23749999999999999</v>
+      </c>
       <c r="I512">
         <v>0</v>
       </c>
@@ -23136,6 +23596,9 @@
       <c r="D514" t="s">
         <v>71</v>
       </c>
+      <c r="E514">
+        <v>3.5251000000000001</v>
+      </c>
       <c r="F514">
         <v>305</v>
       </c>
@@ -23180,6 +23643,9 @@
       <c r="D515" t="s">
         <v>20</v>
       </c>
+      <c r="E515">
+        <v>0.107</v>
+      </c>
       <c r="I515">
         <v>0</v>
       </c>
@@ -23265,6 +23731,9 @@
       <c r="D517" t="s">
         <v>71</v>
       </c>
+      <c r="E517">
+        <v>0.3851</v>
+      </c>
       <c r="F517">
         <v>260</v>
       </c>
@@ -23309,6 +23778,9 @@
       <c r="D518" t="s">
         <v>20</v>
       </c>
+      <c r="E518">
+        <v>0.16470000000000001</v>
+      </c>
       <c r="I518">
         <v>0</v>
       </c>
@@ -23409,6 +23881,9 @@
       <c r="D520" t="s">
         <v>71</v>
       </c>
+      <c r="E520">
+        <v>2.5442</v>
+      </c>
       <c r="F520">
         <v>325</v>
       </c>
@@ -23462,6 +23937,9 @@
       <c r="D521" t="s">
         <v>20</v>
       </c>
+      <c r="E521">
+        <v>1.7835000000000001</v>
+      </c>
       <c r="I521">
         <v>1</v>
       </c>
@@ -23541,6 +24019,9 @@
       <c r="D523" t="s">
         <v>71</v>
       </c>
+      <c r="E523">
+        <v>0.64580000000000004</v>
+      </c>
       <c r="F523">
         <v>280</v>
       </c>
@@ -23585,6 +24066,9 @@
       <c r="D524" t="s">
         <v>20</v>
       </c>
+      <c r="E524">
+        <v>0.81399999999999995</v>
+      </c>
       <c r="I524">
         <v>1</v>
       </c>
@@ -23664,6 +24148,9 @@
       <c r="D526" t="s">
         <v>71</v>
       </c>
+      <c r="E526">
+        <v>2.6099000000000001</v>
+      </c>
       <c r="F526">
         <v>325</v>
       </c>
@@ -23708,6 +24195,9 @@
       <c r="D527" t="s">
         <v>20</v>
       </c>
+      <c r="E527">
+        <v>0.70220000000000005</v>
+      </c>
       <c r="I527">
         <v>1</v>
       </c>
@@ -23787,6 +24277,9 @@
       <c r="D529" t="s">
         <v>71</v>
       </c>
+      <c r="E529">
+        <v>1.5516000000000001</v>
+      </c>
       <c r="F529">
         <v>215</v>
       </c>
@@ -23831,6 +24324,9 @@
       <c r="D530" t="s">
         <v>20</v>
       </c>
+      <c r="E530">
+        <v>0.21329999999999999</v>
+      </c>
       <c r="I530">
         <v>0</v>
       </c>
@@ -23864,7 +24360,7 @@
         <v>59</v>
       </c>
       <c r="E531">
-        <v>0</v>
+        <v>1.7379</v>
       </c>
       <c r="F531">
         <v>130</v>
@@ -23919,6 +24415,9 @@
       <c r="D532" t="s">
         <v>71</v>
       </c>
+      <c r="E532">
+        <v>4.1078999999999999</v>
+      </c>
       <c r="F532">
         <v>280</v>
       </c>
@@ -23975,6 +24474,9 @@
       <c r="D533" t="s">
         <v>20</v>
       </c>
+      <c r="E533">
+        <v>0.46629999999999999</v>
+      </c>
       <c r="I533">
         <v>1</v>
       </c>
@@ -24063,6 +24565,9 @@
       <c r="D535" t="s">
         <v>71</v>
       </c>
+      <c r="E535">
+        <v>2.1894</v>
+      </c>
       <c r="F535">
         <v>185</v>
       </c>
@@ -24110,6 +24615,9 @@
       <c r="D536" t="s">
         <v>20</v>
       </c>
+      <c r="E536">
+        <v>0.30669999999999997</v>
+      </c>
       <c r="I536">
         <v>5</v>
       </c>
@@ -24189,6 +24697,9 @@
       <c r="D538" t="s">
         <v>71</v>
       </c>
+      <c r="E538">
+        <v>1.1962999999999999</v>
+      </c>
       <c r="F538">
         <v>385</v>
       </c>
@@ -24315,6 +24826,9 @@
       <c r="D541" t="s">
         <v>71</v>
       </c>
+      <c r="E541">
+        <v>0.61299999999999999</v>
+      </c>
       <c r="F541">
         <v>500</v>
       </c>
@@ -24359,6 +24873,9 @@
       <c r="D542" t="s">
         <v>20</v>
       </c>
+      <c r="E542">
+        <v>0.43130000000000002</v>
+      </c>
       <c r="I542">
         <v>1</v>
       </c>
@@ -24391,6 +24908,9 @@
       <c r="D543" t="s">
         <v>59</v>
       </c>
+      <c r="E543">
+        <v>1.2222999999999999</v>
+      </c>
       <c r="F543">
         <v>210</v>
       </c>
@@ -24503,6 +25023,9 @@
       <c r="D545" t="s">
         <v>20</v>
       </c>
+      <c r="E545">
+        <v>8.5999999999999993E-2</v>
+      </c>
       <c r="I545">
         <v>3</v>
       </c>
@@ -24544,6 +25067,9 @@
       <c r="D546" t="s">
         <v>59</v>
       </c>
+      <c r="E546">
+        <v>0.77969999999999995</v>
+      </c>
       <c r="F546">
         <v>245</v>
       </c>
@@ -24575,47 +25101,50 @@
         <v>98</v>
       </c>
     </row>
-    <row r="547" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A547" t="s">
+    <row r="547" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A547" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B547" t="s">
+      <c r="B547" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C547">
+      <c r="C547" s="1">
         <v>1</v>
       </c>
-      <c r="D547" t="s">
+      <c r="D547" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F547">
+      <c r="E547" s="1">
+        <v>4.0735000000000001</v>
+      </c>
+      <c r="F547" s="1">
         <v>155</v>
       </c>
-      <c r="G547">
+      <c r="G547" s="1">
         <v>130</v>
       </c>
-      <c r="H547">
+      <c r="H547" s="1">
         <v>130</v>
       </c>
-      <c r="I547">
-        <v>0</v>
-      </c>
-      <c r="J547">
-        <v>0</v>
-      </c>
-      <c r="K547">
+      <c r="I547" s="1">
+        <v>0</v>
+      </c>
+      <c r="J547" s="1">
+        <v>0</v>
+      </c>
+      <c r="K547" s="1">
         <v>23</v>
       </c>
-      <c r="L547">
+      <c r="L547" s="1">
         <v>15</v>
       </c>
-      <c r="M547">
-        <v>0</v>
-      </c>
-      <c r="N547">
+      <c r="M547" s="1">
+        <v>0</v>
+      </c>
+      <c r="N547" s="1">
         <v>85</v>
       </c>
-      <c r="U547" t="s">
+      <c r="U547" s="1" t="s">
         <v>98</v>
       </c>
     </row>
@@ -24632,6 +25161,9 @@
       <c r="D548" t="s">
         <v>20</v>
       </c>
+      <c r="E548">
+        <v>9.69E-2</v>
+      </c>
       <c r="I548">
         <v>0</v>
       </c>
@@ -24664,6 +25196,9 @@
       <c r="D549" t="s">
         <v>59</v>
       </c>
+      <c r="E549">
+        <v>4.36E-2</v>
+      </c>
       <c r="F549">
         <v>215</v>
       </c>
@@ -24717,6 +25252,9 @@
       <c r="D550" t="s">
         <v>71</v>
       </c>
+      <c r="E550">
+        <v>0</v>
+      </c>
       <c r="F550">
         <v>155</v>
       </c>
@@ -24770,6 +25308,9 @@
       <c r="D551" t="s">
         <v>20</v>
       </c>
+      <c r="E551">
+        <v>0.04</v>
+      </c>
       <c r="I551">
         <v>0</v>
       </c>
@@ -24811,6 +25352,9 @@
       <c r="D552" t="s">
         <v>59</v>
       </c>
+      <c r="E552">
+        <v>1.2947</v>
+      </c>
       <c r="F552">
         <v>175</v>
       </c>
@@ -24855,6 +25399,9 @@
       <c r="D553" t="s">
         <v>71</v>
       </c>
+      <c r="E553">
+        <v>0.89129999999999998</v>
+      </c>
       <c r="F553">
         <v>225</v>
       </c>
@@ -24934,6 +25481,9 @@
       <c r="D555" t="s">
         <v>59</v>
       </c>
+      <c r="E555">
+        <v>0.1101</v>
+      </c>
       <c r="F555">
         <v>195</v>
       </c>
@@ -24965,50 +25515,53 @@
         <v>98</v>
       </c>
     </row>
-    <row r="556" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A556" t="s">
+    <row r="556" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A556" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B556" t="s">
+      <c r="B556" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C556">
+      <c r="C556" s="1">
         <v>4</v>
       </c>
-      <c r="D556" t="s">
+      <c r="D556" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F556">
+      <c r="E556" s="1">
+        <v>0.3044</v>
+      </c>
+      <c r="F556" s="1">
         <v>245</v>
       </c>
-      <c r="G556">
+      <c r="G556" s="1">
         <v>175</v>
       </c>
-      <c r="H556">
+      <c r="H556" s="1">
         <v>155</v>
       </c>
-      <c r="I556">
+      <c r="I556" s="1">
         <v>5</v>
       </c>
-      <c r="J556">
-        <v>0</v>
-      </c>
-      <c r="K556">
+      <c r="J556" s="1">
+        <v>0</v>
+      </c>
+      <c r="K556" s="1">
         <v>37</v>
       </c>
-      <c r="L556">
+      <c r="L556" s="1">
         <v>15</v>
       </c>
-      <c r="M556">
-        <v>0</v>
-      </c>
-      <c r="N556">
+      <c r="M556" s="1">
+        <v>0</v>
+      </c>
+      <c r="N556" s="1">
         <v>75</v>
       </c>
-      <c r="O556">
+      <c r="O556" s="1">
         <v>15</v>
       </c>
-      <c r="U556" t="s">
+      <c r="U556" s="1" t="s">
         <v>98</v>
       </c>
     </row>
@@ -25025,6 +25578,9 @@
       <c r="D557" t="s">
         <v>20</v>
       </c>
+      <c r="E557">
+        <v>0.219</v>
+      </c>
       <c r="I557">
         <v>0</v>
       </c>
@@ -25057,6 +25613,9 @@
       <c r="D558" t="s">
         <v>59</v>
       </c>
+      <c r="E558">
+        <v>0.1489</v>
+      </c>
       <c r="F558">
         <v>140</v>
       </c>
@@ -25101,6 +25660,9 @@
       <c r="D559" t="s">
         <v>71</v>
       </c>
+      <c r="E559">
+        <v>0.74960000000000004</v>
+      </c>
       <c r="F559">
         <v>115</v>
       </c>
@@ -25180,6 +25742,9 @@
       <c r="D561" t="s">
         <v>59</v>
       </c>
+      <c r="E561">
+        <v>0.28749999999999998</v>
+      </c>
       <c r="F561">
         <v>140</v>
       </c>
@@ -25236,6 +25801,9 @@
       <c r="D562" t="s">
         <v>71</v>
       </c>
+      <c r="E562">
+        <v>1.0139</v>
+      </c>
       <c r="F562">
         <v>370</v>
       </c>
@@ -25289,6 +25857,9 @@
       <c r="D563" t="s">
         <v>20</v>
       </c>
+      <c r="E563">
+        <v>0.37690000000000001</v>
+      </c>
       <c r="I563">
         <v>0</v>
       </c>
@@ -25330,6 +25901,9 @@
       <c r="D564" t="s">
         <v>59</v>
       </c>
+      <c r="E564">
+        <v>0.72040000000000004</v>
+      </c>
       <c r="F564">
         <v>115</v>
       </c>
@@ -25374,6 +25948,9 @@
       <c r="D565" t="s">
         <v>71</v>
       </c>
+      <c r="E565">
+        <v>0.95760000000000001</v>
+      </c>
       <c r="F565">
         <v>255</v>
       </c>
@@ -25418,6 +25995,9 @@
       <c r="D566" t="s">
         <v>20</v>
       </c>
+      <c r="E566">
+        <v>0</v>
+      </c>
       <c r="I566">
         <v>1</v>
       </c>
@@ -25450,6 +26030,9 @@
       <c r="D567" t="s">
         <v>59</v>
       </c>
+      <c r="E567">
+        <v>2.5926</v>
+      </c>
       <c r="F567">
         <v>75</v>
       </c>
@@ -25494,6 +26077,9 @@
       <c r="D568" t="s">
         <v>71</v>
       </c>
+      <c r="E568">
+        <v>1.1535</v>
+      </c>
       <c r="F568">
         <v>245</v>
       </c>
@@ -25538,6 +26124,9 @@
       <c r="D569" t="s">
         <v>20</v>
       </c>
+      <c r="E569">
+        <v>0.46060000000000001</v>
+      </c>
       <c r="I569">
         <v>0</v>
       </c>
@@ -25570,6 +26159,9 @@
       <c r="D570" t="s">
         <v>59</v>
       </c>
+      <c r="E570">
+        <v>0.35199999999999998</v>
+      </c>
       <c r="F570">
         <v>75</v>
       </c>
@@ -25614,6 +26206,9 @@
       <c r="D571" t="s">
         <v>71</v>
       </c>
+      <c r="E571">
+        <v>0.28689999999999999</v>
+      </c>
       <c r="F571">
         <v>95</v>
       </c>
@@ -25658,6 +26253,9 @@
       <c r="D572" t="s">
         <v>20</v>
       </c>
+      <c r="E572">
+        <v>2.8000000000000001E-2</v>
+      </c>
       <c r="I572">
         <v>1</v>
       </c>
@@ -25690,6 +26288,9 @@
       <c r="D573" t="s">
         <v>59</v>
       </c>
+      <c r="E573">
+        <v>2.0941999999999998</v>
+      </c>
       <c r="F573">
         <v>135</v>
       </c>
@@ -25743,6 +26344,9 @@
       <c r="D574" t="s">
         <v>71</v>
       </c>
+      <c r="E574">
+        <v>0.67310000000000003</v>
+      </c>
       <c r="F574">
         <v>160</v>
       </c>
@@ -25796,6 +26400,9 @@
       <c r="D575" t="s">
         <v>20</v>
       </c>
+      <c r="E575">
+        <v>6.5699999999999995E-2</v>
+      </c>
       <c r="I575">
         <v>0</v>
       </c>
@@ -25837,6 +26444,9 @@
       <c r="D576" t="s">
         <v>59</v>
       </c>
+      <c r="E576">
+        <v>0.95340000000000003</v>
+      </c>
       <c r="F576">
         <v>145</v>
       </c>
@@ -25881,6 +26491,9 @@
       <c r="D577" t="s">
         <v>71</v>
       </c>
+      <c r="E577">
+        <v>0.38090000000000002</v>
+      </c>
       <c r="F577">
         <v>185</v>
       </c>
@@ -25925,6 +26538,9 @@
       <c r="D578" t="s">
         <v>20</v>
       </c>
+      <c r="E578">
+        <v>0.2319</v>
+      </c>
       <c r="I578">
         <v>0</v>
       </c>
@@ -25957,6 +26573,9 @@
       <c r="D579" t="s">
         <v>59</v>
       </c>
+      <c r="E579">
+        <v>0.66139999999999999</v>
+      </c>
       <c r="F579">
         <v>110</v>
       </c>
@@ -26001,6 +26620,9 @@
       <c r="D580" t="s">
         <v>71</v>
       </c>
+      <c r="E580">
+        <v>3.41</v>
+      </c>
       <c r="F580">
         <v>150</v>
       </c>
@@ -26045,6 +26667,9 @@
       <c r="D581" t="s">
         <v>20</v>
       </c>
+      <c r="E581">
+        <v>6.7500000000000004E-2</v>
+      </c>
       <c r="I581">
         <v>0</v>
       </c>
@@ -26077,6 +26702,9 @@
       <c r="D582" t="s">
         <v>59</v>
       </c>
+      <c r="E582">
+        <v>0.29339999999999999</v>
+      </c>
       <c r="F582">
         <v>85</v>
       </c>
@@ -26121,6 +26749,9 @@
       <c r="D583" t="s">
         <v>71</v>
       </c>
+      <c r="E583">
+        <v>1.0711999999999999</v>
+      </c>
       <c r="F583">
         <v>240</v>
       </c>
@@ -26165,6 +26796,9 @@
       <c r="D584" t="s">
         <v>20</v>
       </c>
+      <c r="E584">
+        <v>8.43E-2</v>
+      </c>
       <c r="I584">
         <v>1</v>
       </c>
@@ -26197,6 +26831,9 @@
       <c r="D585" t="s">
         <v>59</v>
       </c>
+      <c r="E585">
+        <v>0.20979999999999999</v>
+      </c>
       <c r="F585">
         <v>135</v>
       </c>
@@ -26253,6 +26890,9 @@
       <c r="D586" t="s">
         <v>71</v>
       </c>
+      <c r="E586">
+        <v>1.6792</v>
+      </c>
       <c r="F586">
         <v>220</v>
       </c>
@@ -26353,6 +26993,9 @@
       <c r="D588" t="s">
         <v>59</v>
       </c>
+      <c r="E588">
+        <v>2.6082000000000001</v>
+      </c>
       <c r="F588">
         <v>75</v>
       </c>
@@ -26397,6 +27040,9 @@
       <c r="D589" t="s">
         <v>71</v>
       </c>
+      <c r="E589">
+        <v>0.98399999999999999</v>
+      </c>
       <c r="F589">
         <v>275</v>
       </c>
@@ -26441,6 +27087,9 @@
       <c r="D590" t="s">
         <v>20</v>
       </c>
+      <c r="E590">
+        <v>0.28939999999999999</v>
+      </c>
       <c r="I590">
         <v>0</v>
       </c>
@@ -26473,6 +27122,9 @@
       <c r="D591" t="s">
         <v>59</v>
       </c>
+      <c r="E591">
+        <v>1.1774</v>
+      </c>
       <c r="F591">
         <v>115</v>
       </c>
@@ -26517,6 +27169,9 @@
       <c r="D592" t="s">
         <v>71</v>
       </c>
+      <c r="E592">
+        <v>0.29609999999999997</v>
+      </c>
       <c r="F592">
         <v>210</v>
       </c>
@@ -26561,6 +27216,9 @@
       <c r="D593" t="s">
         <v>20</v>
       </c>
+      <c r="E593">
+        <v>6.9099999999999995E-2</v>
+      </c>
       <c r="I593">
         <v>1</v>
       </c>
@@ -26593,6 +27251,9 @@
       <c r="D594" t="s">
         <v>59</v>
       </c>
+      <c r="E594">
+        <v>2.3010000000000002</v>
+      </c>
       <c r="F594">
         <v>100</v>
       </c>
@@ -26637,6 +27298,9 @@
       <c r="D595" t="s">
         <v>71</v>
       </c>
+      <c r="E595">
+        <v>1.3754999999999999</v>
+      </c>
       <c r="F595">
         <v>240</v>
       </c>
@@ -26681,6 +27345,9 @@
       <c r="D596" t="s">
         <v>20</v>
       </c>
+      <c r="E596">
+        <v>8.2100000000000006E-2</v>
+      </c>
       <c r="I596">
         <v>0</v>
       </c>
@@ -26713,6 +27380,9 @@
       <c r="D597" t="s">
         <v>59</v>
       </c>
+      <c r="E597">
+        <v>0.39579999999999999</v>
+      </c>
       <c r="F597">
         <v>95</v>
       </c>
@@ -26766,6 +27436,9 @@
       <c r="D598" t="s">
         <v>71</v>
       </c>
+      <c r="E598">
+        <v>0.74119999999999997</v>
+      </c>
       <c r="F598">
         <v>145</v>
       </c>
@@ -26863,6 +27536,9 @@
       <c r="D600" t="s">
         <v>59</v>
       </c>
+      <c r="E600">
+        <v>0.87590000000000001</v>
+      </c>
       <c r="F600">
         <v>85</v>
       </c>
@@ -26907,6 +27583,9 @@
       <c r="D601" t="s">
         <v>71</v>
       </c>
+      <c r="E601">
+        <v>0.81930000000000003</v>
+      </c>
       <c r="F601">
         <v>295</v>
       </c>
@@ -26951,6 +27630,9 @@
       <c r="D602" t="s">
         <v>20</v>
       </c>
+      <c r="E602">
+        <v>4.48E-2</v>
+      </c>
       <c r="I602">
         <v>0</v>
       </c>
@@ -26983,6 +27665,9 @@
       <c r="D603" t="s">
         <v>59</v>
       </c>
+      <c r="E603">
+        <v>2.1173000000000002</v>
+      </c>
       <c r="F603">
         <v>115</v>
       </c>
@@ -27027,6 +27712,9 @@
       <c r="D604" t="s">
         <v>71</v>
       </c>
+      <c r="E604">
+        <v>2.4634999999999998</v>
+      </c>
       <c r="F604">
         <v>420</v>
       </c>
@@ -27106,6 +27794,9 @@
       <c r="D606" t="s">
         <v>59</v>
       </c>
+      <c r="E606">
+        <v>0.57740000000000002</v>
+      </c>
       <c r="F606">
         <v>125</v>
       </c>
@@ -27150,6 +27841,9 @@
       <c r="D607" t="s">
         <v>71</v>
       </c>
+      <c r="E607">
+        <v>1.2936000000000001</v>
+      </c>
       <c r="F607">
         <v>120</v>
       </c>
@@ -27194,6 +27888,9 @@
       <c r="D608" t="s">
         <v>20</v>
       </c>
+      <c r="E608">
+        <v>8.43E-2</v>
+      </c>
       <c r="I608">
         <v>0</v>
       </c>
@@ -27226,6 +27923,9 @@
       <c r="D609" t="s">
         <v>59</v>
       </c>
+      <c r="E609">
+        <v>0.36220000000000002</v>
+      </c>
       <c r="F609">
         <v>105</v>
       </c>
@@ -27270,6 +27970,9 @@
       <c r="D610" t="s">
         <v>71</v>
       </c>
+      <c r="E610">
+        <v>1.5863</v>
+      </c>
       <c r="F610">
         <v>190</v>
       </c>
@@ -27367,6 +28070,9 @@
       <c r="D612" t="s">
         <v>59</v>
       </c>
+      <c r="E612">
+        <v>0.1757</v>
+      </c>
       <c r="F612">
         <v>155</v>
       </c>
@@ -27420,6 +28126,9 @@
       <c r="D613" t="s">
         <v>71</v>
       </c>
+      <c r="E613">
+        <v>2.9641000000000002</v>
+      </c>
       <c r="F613">
         <v>185</v>
       </c>
@@ -27499,6 +28208,9 @@
       <c r="D615" t="s">
         <v>59</v>
       </c>
+      <c r="E615">
+        <v>1.2513000000000001</v>
+      </c>
       <c r="F615">
         <v>100</v>
       </c>
@@ -27543,6 +28255,9 @@
       <c r="D616" t="s">
         <v>71</v>
       </c>
+      <c r="E616">
+        <v>0.47910000000000003</v>
+      </c>
       <c r="F616">
         <v>130</v>
       </c>
@@ -27622,6 +28337,9 @@
       <c r="D618" t="s">
         <v>59</v>
       </c>
+      <c r="E618">
+        <v>0.58450000000000002</v>
+      </c>
       <c r="F618">
         <v>75</v>
       </c>
@@ -27666,6 +28384,9 @@
       <c r="D619" t="s">
         <v>71</v>
       </c>
+      <c r="E619">
+        <v>0.28389999999999999</v>
+      </c>
       <c r="F619">
         <v>75</v>
       </c>
@@ -27710,6 +28431,9 @@
       <c r="D620" t="s">
         <v>20</v>
       </c>
+      <c r="E620">
+        <v>0.21179999999999999</v>
+      </c>
       <c r="I620">
         <v>0</v>
       </c>
@@ -27742,6 +28466,9 @@
       <c r="D621" t="s">
         <v>59</v>
       </c>
+      <c r="E621">
+        <v>0.7399</v>
+      </c>
       <c r="F621">
         <v>85</v>
       </c>
@@ -27795,6 +28522,9 @@
       <c r="D622" t="s">
         <v>71</v>
       </c>
+      <c r="E622">
+        <v>0.71240000000000003</v>
+      </c>
       <c r="F622">
         <v>125</v>
       </c>
@@ -27848,6 +28578,9 @@
       <c r="D623" t="s">
         <v>20</v>
       </c>
+      <c r="E623">
+        <v>0.18190000000000001</v>
+      </c>
       <c r="I623">
         <v>0</v>
       </c>
@@ -27889,6 +28622,9 @@
       <c r="D624" t="s">
         <v>59</v>
       </c>
+      <c r="E624">
+        <v>0.85340000000000005</v>
+      </c>
       <c r="F624">
         <v>75</v>
       </c>
@@ -27933,6 +28669,9 @@
       <c r="D625" t="s">
         <v>71</v>
       </c>
+      <c r="E625">
+        <v>2.1562000000000001</v>
+      </c>
       <c r="F625">
         <v>145</v>
       </c>
@@ -27977,6 +28716,9 @@
       <c r="D626" t="s">
         <v>20</v>
       </c>
+      <c r="E626">
+        <v>9.8199999999999996E-2</v>
+      </c>
       <c r="I626">
         <v>0</v>
       </c>
@@ -28009,6 +28751,9 @@
       <c r="D627" t="s">
         <v>59</v>
       </c>
+      <c r="E627">
+        <v>1.7276</v>
+      </c>
       <c r="F627">
         <v>135</v>
       </c>
@@ -28056,6 +28801,9 @@
       <c r="D628" t="s">
         <v>71</v>
       </c>
+      <c r="E628">
+        <v>0.1588</v>
+      </c>
       <c r="F628">
         <v>160</v>
       </c>
@@ -28100,6 +28848,9 @@
       <c r="D629" t="s">
         <v>20</v>
       </c>
+      <c r="E629">
+        <v>0.19570000000000001</v>
+      </c>
       <c r="I629">
         <v>0</v>
       </c>
@@ -28132,6 +28883,9 @@
       <c r="D630" t="s">
         <v>59</v>
       </c>
+      <c r="E630">
+        <v>0.50319999999999998</v>
+      </c>
       <c r="F630">
         <v>105</v>
       </c>
@@ -28176,6 +28930,9 @@
       <c r="D631" t="s">
         <v>71</v>
       </c>
+      <c r="E631">
+        <v>0.65980000000000005</v>
+      </c>
       <c r="F631">
         <v>170</v>
       </c>
@@ -28223,6 +28980,9 @@
       <c r="D632" t="s">
         <v>20</v>
       </c>
+      <c r="E632">
+        <v>0.1613</v>
+      </c>
       <c r="I632">
         <v>0</v>
       </c>
@@ -28255,6 +29015,9 @@
       <c r="D633" t="s">
         <v>59</v>
       </c>
+      <c r="E633">
+        <v>0</v>
+      </c>
       <c r="F633">
         <v>180</v>
       </c>
@@ -28308,6 +29071,9 @@
       <c r="D634" t="s">
         <v>71</v>
       </c>
+      <c r="E634">
+        <v>0.89070000000000005</v>
+      </c>
       <c r="F634">
         <v>240</v>
       </c>
@@ -28360,6 +29126,9 @@
       </c>
       <c r="D635" t="s">
         <v>20</v>
+      </c>
+      <c r="E635">
+        <v>0.1353</v>
       </c>
       <c r="I635">
         <v>0</v>
@@ -28399,7 +29168,7 @@
   <dimension ref="B1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28411,12 +29180,12 @@
     </row>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D2">
-        <v>3.6905999999999999</v>
+        <v>13.398899999999999</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D3">
-        <v>0.64629999999999999</v>
+        <v>1.7682</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
@@ -28428,7 +29197,7 @@
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12">
         <f>SUM(D1:D11)</f>
-        <v>4.3369</v>
+        <v>15.1671</v>
       </c>
     </row>
   </sheetData>

--- a/rdm.gradient.2019.datasheet.xlsx
+++ b/rdm.gradient.2019.datasheet.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3173" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3179" uniqueCount="101">
   <si>
     <t>Region</t>
   </si>
@@ -651,8 +651,8 @@
   <dimension ref="A1:V635"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A113" sqref="A113:XFD113"/>
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P68" sqref="P68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3592,8 +3592,17 @@
       <c r="N64">
         <v>10</v>
       </c>
+      <c r="R64" t="s">
+        <v>22</v>
+      </c>
+      <c r="S64" t="s">
+        <v>26</v>
+      </c>
+      <c r="T64" t="s">
+        <v>27</v>
+      </c>
       <c r="U64" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="65" spans="1:21" x14ac:dyDescent="0.25">
@@ -3627,8 +3636,17 @@
       <c r="N65">
         <v>15</v>
       </c>
+      <c r="R65" t="s">
+        <v>22</v>
+      </c>
+      <c r="S65" t="s">
+        <v>26</v>
+      </c>
+      <c r="T65" t="s">
+        <v>27</v>
+      </c>
       <c r="U65" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="66" spans="1:21" x14ac:dyDescent="0.25">

--- a/rdm.gradient.2019.datasheet.xlsx
+++ b/rdm.gradient.2019.datasheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7020"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7020" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3179" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3181" uniqueCount="102">
   <si>
     <t>Region</t>
   </si>
@@ -330,6 +330,9 @@
   </si>
   <si>
     <t>sum</t>
+  </si>
+  <si>
+    <t>changed C2 O25 veg height from 90 to NA because that is clearly an error</t>
   </si>
 </sst>
 </file>
@@ -650,9 +653,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V635"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P68" sqref="P68"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A293" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K295" sqref="K295"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3528,7 +3531,7 @@
         <v>3.5543</v>
       </c>
       <c r="I63">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="K63">
         <v>45</v>
@@ -13723,8 +13726,8 @@
       <c r="I295">
         <v>3</v>
       </c>
-      <c r="K295">
-        <v>90</v>
+      <c r="K295" t="s">
+        <v>57</v>
       </c>
       <c r="L295">
         <v>2</v>
@@ -29183,36 +29186,39 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G12"/>
+  <dimension ref="B1:J12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D2">
         <v>13.398899999999999</v>
       </c>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="J2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D3">
         <v>1.7682</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G5">
         <f>6.8091-0.2927</f>
         <v>6.5164</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12">
         <f>SUM(D1:D11)</f>
         <v>15.1671</v>
